--- a/Stock_data/UnitedHealth_Group.xlsx
+++ b/Stock_data/UnitedHealth_Group.xlsx
@@ -525,7 +525,7 @@
         <v>43832</v>
       </c>
       <c r="B4" t="n">
-        <v>272.8175048828125</v>
+        <v>272.8174743652344</v>
       </c>
       <c r="C4" t="n">
         <v>292.5</v>
@@ -548,7 +548,7 @@
         <v>43833</v>
       </c>
       <c r="B5" t="n">
-        <v>270.0567016601562</v>
+        <v>270.0567321777344</v>
       </c>
       <c r="C5" t="n">
         <v>289.5400085449219</v>
@@ -571,7 +571,7 @@
         <v>43836</v>
       </c>
       <c r="B6" t="n">
-        <v>271.931396484375</v>
+        <v>271.9313659667969</v>
       </c>
       <c r="C6" t="n">
         <v>291.5499877929688</v>
@@ -594,7 +594,7 @@
         <v>43837</v>
       </c>
       <c r="B7" t="n">
-        <v>270.2898254394531</v>
+        <v>270.2898864746094</v>
       </c>
       <c r="C7" t="n">
         <v>289.7900085449219</v>
@@ -617,7 +617,7 @@
         <v>43838</v>
       </c>
       <c r="B8" t="n">
-        <v>275.98876953125</v>
+        <v>275.9886779785156</v>
       </c>
       <c r="C8" t="n">
         <v>295.8999938964844</v>
@@ -640,7 +640,7 @@
         <v>43839</v>
       </c>
       <c r="B9" t="n">
-        <v>274.4218139648438</v>
+        <v>274.4217529296875</v>
       </c>
       <c r="C9" t="n">
         <v>294.2200012207031</v>
@@ -686,7 +686,7 @@
         <v>43843</v>
       </c>
       <c r="B11" t="n">
-        <v>266.6149597167969</v>
+        <v>266.614990234375</v>
       </c>
       <c r="C11" t="n">
         <v>285.8500061035156</v>
@@ -709,7 +709,7 @@
         <v>43844</v>
       </c>
       <c r="B12" t="n">
-        <v>268.8441162109375</v>
+        <v>268.8441467285156</v>
       </c>
       <c r="C12" t="n">
         <v>288.239990234375</v>
@@ -732,7 +732,7 @@
         <v>43845</v>
       </c>
       <c r="B13" t="n">
-        <v>276.4643859863281</v>
+        <v>276.4644165039062</v>
       </c>
       <c r="C13" t="n">
         <v>296.4100036621094</v>
@@ -755,7 +755,7 @@
         <v>43846</v>
       </c>
       <c r="B14" t="n">
-        <v>280.5030517578125</v>
+        <v>280.5030822753906</v>
       </c>
       <c r="C14" t="n">
         <v>300.739990234375</v>
@@ -778,7 +778,7 @@
         <v>43847</v>
       </c>
       <c r="B15" t="n">
-        <v>278.3858032226562</v>
+        <v>278.3857116699219</v>
       </c>
       <c r="C15" t="n">
         <v>298.4700012207031</v>
@@ -801,7 +801,7 @@
         <v>43851</v>
       </c>
       <c r="B16" t="n">
-        <v>280.30712890625</v>
+        <v>280.3071899414062</v>
       </c>
       <c r="C16" t="n">
         <v>300.5299987792969</v>
@@ -824,7 +824,7 @@
         <v>43852</v>
       </c>
       <c r="B17" t="n">
-        <v>280.3630981445312</v>
+        <v>280.3631591796875</v>
       </c>
       <c r="C17" t="n">
         <v>300.5899963378906</v>
@@ -916,7 +916,7 @@
         <v>43858</v>
       </c>
       <c r="B21" t="n">
-        <v>266.633544921875</v>
+        <v>266.6336059570312</v>
       </c>
       <c r="C21" t="n">
         <v>285.8699951171875</v>
@@ -939,7 +939,7 @@
         <v>43859</v>
       </c>
       <c r="B22" t="n">
-        <v>263.8634948730469</v>
+        <v>263.8634338378906</v>
       </c>
       <c r="C22" t="n">
         <v>282.8999938964844</v>
@@ -962,7 +962,7 @@
         <v>43860</v>
       </c>
       <c r="B23" t="n">
-        <v>262.0726928710938</v>
+        <v>262.0727233886719</v>
       </c>
       <c r="C23" t="n">
         <v>280.9800109863281</v>
@@ -985,7 +985,7 @@
         <v>43861</v>
       </c>
       <c r="B24" t="n">
-        <v>254.1167144775391</v>
+        <v>254.11669921875</v>
       </c>
       <c r="C24" t="n">
         <v>272.4500122070312</v>
@@ -1008,7 +1008,7 @@
         <v>43864</v>
       </c>
       <c r="B25" t="n">
-        <v>255.5810394287109</v>
+        <v>255.5810241699219</v>
       </c>
       <c r="C25" t="n">
         <v>274.0199890136719</v>
@@ -1031,7 +1031,7 @@
         <v>43865</v>
       </c>
       <c r="B26" t="n">
-        <v>261.9421081542969</v>
+        <v>261.9420776367188</v>
       </c>
       <c r="C26" t="n">
         <v>280.8399963378906</v>
@@ -1054,7 +1054,7 @@
         <v>43866</v>
       </c>
       <c r="B27" t="n">
-        <v>275.8302307128906</v>
+        <v>275.8301696777344</v>
       </c>
       <c r="C27" t="n">
         <v>295.7300109863281</v>
@@ -1077,7 +1077,7 @@
         <v>43867</v>
       </c>
       <c r="B28" t="n">
-        <v>272.7802124023438</v>
+        <v>272.7802429199219</v>
       </c>
       <c r="C28" t="n">
         <v>292.4599914550781</v>
@@ -1100,7 +1100,7 @@
         <v>43868</v>
       </c>
       <c r="B29" t="n">
-        <v>269.7582397460938</v>
+        <v>269.7582092285156</v>
       </c>
       <c r="C29" t="n">
         <v>289.2200012207031</v>
@@ -1123,7 +1123,7 @@
         <v>43871</v>
       </c>
       <c r="B30" t="n">
-        <v>267.7155456542969</v>
+        <v>267.7156372070312</v>
       </c>
       <c r="C30" t="n">
         <v>287.0299987792969</v>
@@ -1146,7 +1146,7 @@
         <v>43872</v>
       </c>
       <c r="B31" t="n">
-        <v>271.2225646972656</v>
+        <v>271.2226257324219</v>
       </c>
       <c r="C31" t="n">
         <v>290.7900085449219</v>
@@ -1169,7 +1169,7 @@
         <v>43873</v>
       </c>
       <c r="B32" t="n">
-        <v>283.05859375</v>
+        <v>283.0587158203125</v>
       </c>
       <c r="C32" t="n">
         <v>303.4800109863281</v>
@@ -1192,7 +1192,7 @@
         <v>43874</v>
       </c>
       <c r="B33" t="n">
-        <v>281.8647766113281</v>
+        <v>281.86474609375</v>
       </c>
       <c r="C33" t="n">
         <v>302.2000122070312</v>
@@ -1215,7 +1215,7 @@
         <v>43875</v>
       </c>
       <c r="B34" t="n">
-        <v>278.6749267578125</v>
+        <v>278.6749572753906</v>
       </c>
       <c r="C34" t="n">
         <v>298.7799987792969</v>
@@ -1238,7 +1238,7 @@
         <v>43879</v>
       </c>
       <c r="B35" t="n">
-        <v>281.808837890625</v>
+        <v>281.8087768554688</v>
       </c>
       <c r="C35" t="n">
         <v>302.1400146484375</v>
@@ -1261,7 +1261,7 @@
         <v>43880</v>
       </c>
       <c r="B36" t="n">
-        <v>284.7654418945312</v>
+        <v>284.7655334472656</v>
       </c>
       <c r="C36" t="n">
         <v>305.3099975585938</v>
@@ -1284,7 +1284,7 @@
         <v>43881</v>
       </c>
       <c r="B37" t="n">
-        <v>281.7994995117188</v>
+        <v>281.7994384765625</v>
       </c>
       <c r="C37" t="n">
         <v>302.1300048828125</v>
@@ -1330,7 +1330,7 @@
         <v>43885</v>
       </c>
       <c r="B39" t="n">
-        <v>259.0973510742188</v>
+        <v>259.0973815917969</v>
       </c>
       <c r="C39" t="n">
         <v>277.7900085449219</v>
@@ -1353,7 +1353,7 @@
         <v>43886</v>
       </c>
       <c r="B40" t="n">
-        <v>245.6663665771484</v>
+        <v>245.6663055419922</v>
       </c>
       <c r="C40" t="n">
         <v>263.3900146484375</v>
@@ -1376,7 +1376,7 @@
         <v>43887</v>
       </c>
       <c r="B41" t="n">
-        <v>245.3025665283203</v>
+        <v>245.3025817871094</v>
       </c>
       <c r="C41" t="n">
         <v>263</v>
@@ -1399,7 +1399,7 @@
         <v>43888</v>
       </c>
       <c r="B42" t="n">
-        <v>236.8335266113281</v>
+        <v>236.8335723876953</v>
       </c>
       <c r="C42" t="n">
         <v>253.9199981689453</v>
@@ -1422,7 +1422,7 @@
         <v>43889</v>
       </c>
       <c r="B43" t="n">
-        <v>237.8035736083984</v>
+        <v>237.8036193847656</v>
       </c>
       <c r="C43" t="n">
         <v>254.9600067138672</v>
@@ -1445,7 +1445,7 @@
         <v>43892</v>
       </c>
       <c r="B44" t="n">
-        <v>254.7322235107422</v>
+        <v>254.7322387695312</v>
       </c>
       <c r="C44" t="n">
         <v>273.1099853515625</v>
@@ -1468,7 +1468,7 @@
         <v>43893</v>
       </c>
       <c r="B45" t="n">
-        <v>243.8102264404297</v>
+        <v>243.8102416992188</v>
       </c>
       <c r="C45" t="n">
         <v>261.3999938964844</v>
@@ -1491,7 +1491,7 @@
         <v>43894</v>
       </c>
       <c r="B46" t="n">
-        <v>269.9447326660156</v>
+        <v>269.9447937011719</v>
       </c>
       <c r="C46" t="n">
         <v>289.4200134277344</v>
@@ -1514,7 +1514,7 @@
         <v>43895</v>
       </c>
       <c r="B47" t="n">
-        <v>263.9194030761719</v>
+        <v>263.9194641113281</v>
       </c>
       <c r="C47" t="n">
         <v>282.9599914550781</v>
@@ -1537,7 +1537,7 @@
         <v>43896</v>
       </c>
       <c r="B48" t="n">
-        <v>264.7681579589844</v>
+        <v>264.7682495117188</v>
       </c>
       <c r="C48" t="n">
         <v>283.8699951171875</v>
@@ -1560,7 +1560,7 @@
         <v>43899</v>
       </c>
       <c r="B49" t="n">
-        <v>255.0401153564453</v>
+        <v>255.0400695800781</v>
       </c>
       <c r="C49" t="n">
         <v>273.4400024414062</v>
@@ -1606,7 +1606,7 @@
         <v>43901</v>
       </c>
       <c r="B51" t="n">
-        <v>259.0881042480469</v>
+        <v>259.0880432128906</v>
       </c>
       <c r="C51" t="n">
         <v>277.7799987792969</v>
@@ -1629,7 +1629,7 @@
         <v>43902</v>
       </c>
       <c r="B52" t="n">
-        <v>233.5597839355469</v>
+        <v>233.5597991943359</v>
       </c>
       <c r="C52" t="n">
         <v>250.4100036621094</v>
@@ -1652,7 +1652,7 @@
         <v>43903</v>
       </c>
       <c r="B53" t="n">
-        <v>254.8333282470703</v>
+        <v>254.8332824707031</v>
       </c>
       <c r="C53" t="n">
         <v>272.0400085449219</v>
@@ -1744,7 +1744,7 @@
         <v>43909</v>
       </c>
       <c r="B57" t="n">
-        <v>205.8975372314453</v>
+        <v>205.8975219726562</v>
       </c>
       <c r="C57" t="n">
         <v>219.8000030517578</v>
@@ -1767,7 +1767,7 @@
         <v>43910</v>
       </c>
       <c r="B58" t="n">
-        <v>193.5230712890625</v>
+        <v>193.5231170654297</v>
       </c>
       <c r="C58" t="n">
         <v>206.5899963378906</v>
@@ -1813,7 +1813,7 @@
         <v>43914</v>
       </c>
       <c r="B60" t="n">
-        <v>205.8975372314453</v>
+        <v>205.8975219726562</v>
       </c>
       <c r="C60" t="n">
         <v>219.8000030517578</v>
@@ -1836,7 +1836,7 @@
         <v>43915</v>
       </c>
       <c r="B61" t="n">
-        <v>219.6584320068359</v>
+        <v>219.6583862304688</v>
       </c>
       <c r="C61" t="n">
         <v>234.4900054931641</v>
@@ -1859,7 +1859,7 @@
         <v>43916</v>
       </c>
       <c r="B62" t="n">
-        <v>239.2364501953125</v>
+        <v>239.2364654541016</v>
       </c>
       <c r="C62" t="n">
         <v>255.3899993896484</v>
@@ -1882,7 +1882,7 @@
         <v>43917</v>
       </c>
       <c r="B63" t="n">
-        <v>227.1149444580078</v>
+        <v>227.1149291992188</v>
       </c>
       <c r="C63" t="n">
         <v>242.4499969482422</v>
@@ -1928,7 +1928,7 @@
         <v>43921</v>
       </c>
       <c r="B65" t="n">
-        <v>233.6066131591797</v>
+        <v>233.6065826416016</v>
       </c>
       <c r="C65" t="n">
         <v>249.3800048828125</v>
@@ -1951,7 +1951,7 @@
         <v>43922</v>
       </c>
       <c r="B66" t="n">
-        <v>222.3093719482422</v>
+        <v>222.3094177246094</v>
       </c>
       <c r="C66" t="n">
         <v>237.3200073242188</v>
@@ -1974,7 +1974,7 @@
         <v>43923</v>
       </c>
       <c r="B67" t="n">
-        <v>225.2320251464844</v>
+        <v>225.2320404052734</v>
       </c>
       <c r="C67" t="n">
         <v>240.4400024414062</v>
@@ -1997,7 +1997,7 @@
         <v>43924</v>
       </c>
       <c r="B68" t="n">
-        <v>214.9746398925781</v>
+        <v>214.9746551513672</v>
       </c>
       <c r="C68" t="n">
         <v>229.4900054931641</v>
@@ -2066,7 +2066,7 @@
         <v>43929</v>
       </c>
       <c r="B71" t="n">
-        <v>250.8896026611328</v>
+        <v>250.8895874023438</v>
       </c>
       <c r="C71" t="n">
         <v>267.8299865722656</v>
@@ -2089,7 +2089,7 @@
         <v>43930</v>
       </c>
       <c r="B72" t="n">
-        <v>247.4236145019531</v>
+        <v>247.4236450195312</v>
       </c>
       <c r="C72" t="n">
         <v>264.1300048828125</v>
@@ -2112,7 +2112,7 @@
         <v>43934</v>
       </c>
       <c r="B73" t="n">
-        <v>246.8428344726562</v>
+        <v>246.8428649902344</v>
       </c>
       <c r="C73" t="n">
         <v>263.510009765625</v>
@@ -2135,7 +2135,7 @@
         <v>43935</v>
       </c>
       <c r="B74" t="n">
-        <v>253.3907318115234</v>
+        <v>253.3907623291016</v>
       </c>
       <c r="C74" t="n">
         <v>270.5</v>
@@ -2158,7 +2158,7 @@
         <v>43936</v>
       </c>
       <c r="B75" t="n">
-        <v>263.8636169433594</v>
+        <v>263.863525390625</v>
       </c>
       <c r="C75" t="n">
         <v>281.6799926757812</v>
@@ -2181,7 +2181,7 @@
         <v>43937</v>
       </c>
       <c r="B76" t="n">
-        <v>279.5541381835938</v>
+        <v>279.5541687011719</v>
       </c>
       <c r="C76" t="n">
         <v>298.4299926757812</v>
@@ -2227,7 +2227,7 @@
         <v>43941</v>
       </c>
       <c r="B78" t="n">
-        <v>264.2945251464844</v>
+        <v>264.2945556640625</v>
       </c>
       <c r="C78" t="n">
         <v>282.1400146484375</v>
@@ -2250,7 +2250,7 @@
         <v>43942</v>
       </c>
       <c r="B79" t="n">
-        <v>256.847412109375</v>
+        <v>256.8473815917969</v>
       </c>
       <c r="C79" t="n">
         <v>274.1900024414062</v>
@@ -2273,7 +2273,7 @@
         <v>43943</v>
       </c>
       <c r="B80" t="n">
-        <v>259.4984436035156</v>
+        <v>259.4983825683594</v>
       </c>
       <c r="C80" t="n">
         <v>277.0199890136719</v>
@@ -2319,7 +2319,7 @@
         <v>43945</v>
       </c>
       <c r="B82" t="n">
-        <v>272.8657531738281</v>
+        <v>272.8657836914062</v>
       </c>
       <c r="C82" t="n">
         <v>291.2900085449219</v>
@@ -2365,7 +2365,7 @@
         <v>43949</v>
       </c>
       <c r="B84" t="n">
-        <v>270.1210632324219</v>
+        <v>270.12109375</v>
       </c>
       <c r="C84" t="n">
         <v>288.3599853515625</v>
@@ -2388,7 +2388,7 @@
         <v>43950</v>
       </c>
       <c r="B85" t="n">
-        <v>269.4559326171875</v>
+        <v>269.4559631347656</v>
       </c>
       <c r="C85" t="n">
         <v>287.6499938964844</v>
@@ -2411,7 +2411,7 @@
         <v>43951</v>
       </c>
       <c r="B86" t="n">
-        <v>273.9711608886719</v>
+        <v>273.9710998535156</v>
       </c>
       <c r="C86" t="n">
         <v>292.4700012207031</v>
@@ -2434,7 +2434,7 @@
         <v>43952</v>
       </c>
       <c r="B87" t="n">
-        <v>266.5146179199219</v>
+        <v>266.5146484375</v>
       </c>
       <c r="C87" t="n">
         <v>284.510009765625</v>
@@ -2457,7 +2457,7 @@
         <v>43955</v>
       </c>
       <c r="B88" t="n">
-        <v>269.3529968261719</v>
+        <v>269.3529663085938</v>
       </c>
       <c r="C88" t="n">
         <v>287.5400085449219</v>
@@ -2480,7 +2480,7 @@
         <v>43956</v>
       </c>
       <c r="B89" t="n">
-        <v>274.505126953125</v>
+        <v>274.5050964355469</v>
       </c>
       <c r="C89" t="n">
         <v>293.0400085449219</v>
@@ -2503,7 +2503,7 @@
         <v>43957</v>
       </c>
       <c r="B90" t="n">
-        <v>270.5051574707031</v>
+        <v>270.505126953125</v>
       </c>
       <c r="C90" t="n">
         <v>288.7699890136719</v>
@@ -2549,7 +2549,7 @@
         <v>43959</v>
       </c>
       <c r="B92" t="n">
-        <v>268.8471374511719</v>
+        <v>268.8471069335938</v>
       </c>
       <c r="C92" t="n">
         <v>287</v>
@@ -2572,7 +2572,7 @@
         <v>43962</v>
       </c>
       <c r="B93" t="n">
-        <v>270.43017578125</v>
+        <v>270.4302368164062</v>
       </c>
       <c r="C93" t="n">
         <v>288.6900024414062</v>
@@ -2618,7 +2618,7 @@
         <v>43964</v>
       </c>
       <c r="B95" t="n">
-        <v>260.4163513183594</v>
+        <v>260.4163208007812</v>
       </c>
       <c r="C95" t="n">
         <v>278</v>
@@ -2664,7 +2664,7 @@
         <v>43966</v>
       </c>
       <c r="B97" t="n">
-        <v>272.556640625</v>
+        <v>272.5566101074219</v>
       </c>
       <c r="C97" t="n">
         <v>290.9599914550781</v>
@@ -2687,7 +2687,7 @@
         <v>43969</v>
       </c>
       <c r="B98" t="n">
-        <v>274.8048706054688</v>
+        <v>274.8047790527344</v>
       </c>
       <c r="C98" t="n">
         <v>293.3599853515625</v>
@@ -2710,7 +2710,7 @@
         <v>43970</v>
       </c>
       <c r="B99" t="n">
-        <v>270.7674255371094</v>
+        <v>270.7674865722656</v>
       </c>
       <c r="C99" t="n">
         <v>289.0499877929688</v>
@@ -2733,7 +2733,7 @@
         <v>43971</v>
       </c>
       <c r="B100" t="n">
-        <v>269.7743835449219</v>
+        <v>269.7744445800781</v>
       </c>
       <c r="C100" t="n">
         <v>287.989990234375</v>
@@ -2756,7 +2756,7 @@
         <v>43972</v>
       </c>
       <c r="B101" t="n">
-        <v>268.7628173828125</v>
+        <v>268.7627868652344</v>
       </c>
       <c r="C101" t="n">
         <v>286.9100036621094</v>
@@ -2779,7 +2779,7 @@
         <v>43973</v>
       </c>
       <c r="B102" t="n">
-        <v>271.6011352539062</v>
+        <v>271.6011657714844</v>
       </c>
       <c r="C102" t="n">
         <v>289.9400024414062</v>
@@ -2802,7 +2802,7 @@
         <v>43977</v>
       </c>
       <c r="B103" t="n">
-        <v>276.2380676269531</v>
+        <v>276.2381286621094</v>
       </c>
       <c r="C103" t="n">
         <v>294.8900146484375</v>
@@ -2848,7 +2848,7 @@
         <v>43979</v>
       </c>
       <c r="B105" t="n">
-        <v>284.7437744140625</v>
+        <v>284.7437438964844</v>
       </c>
       <c r="C105" t="n">
         <v>303.9700012207031</v>
@@ -2871,7 +2871,7 @@
         <v>43980</v>
       </c>
       <c r="B106" t="n">
-        <v>285.5681457519531</v>
+        <v>285.5680541992188</v>
       </c>
       <c r="C106" t="n">
         <v>304.8500061035156</v>
@@ -2894,7 +2894,7 @@
         <v>43983</v>
       </c>
       <c r="B107" t="n">
-        <v>286.5797424316406</v>
+        <v>286.5797729492188</v>
       </c>
       <c r="C107" t="n">
         <v>305.9299926757812</v>
@@ -2940,7 +2940,7 @@
         <v>43985</v>
       </c>
       <c r="B109" t="n">
-        <v>286.0365295410156</v>
+        <v>286.0364990234375</v>
       </c>
       <c r="C109" t="n">
         <v>305.3500061035156</v>
@@ -2963,7 +2963,7 @@
         <v>43986</v>
       </c>
       <c r="B110" t="n">
-        <v>279.2262573242188</v>
+        <v>279.2262878417969</v>
       </c>
       <c r="C110" t="n">
         <v>298.0799865722656</v>
@@ -2986,7 +2986,7 @@
         <v>43987</v>
       </c>
       <c r="B111" t="n">
-        <v>292.1253662109375</v>
+        <v>292.1253356933594</v>
       </c>
       <c r="C111" t="n">
         <v>311.8500061035156</v>
@@ -3009,7 +3009,7 @@
         <v>43990</v>
       </c>
       <c r="B112" t="n">
-        <v>289.9051208496094</v>
+        <v>289.9052429199219</v>
       </c>
       <c r="C112" t="n">
         <v>309.4800109863281</v>
@@ -3055,7 +3055,7 @@
         <v>43992</v>
       </c>
       <c r="B114" t="n">
-        <v>286.4112243652344</v>
+        <v>286.4112548828125</v>
       </c>
       <c r="C114" t="n">
         <v>305.75</v>
@@ -3101,7 +3101,7 @@
         <v>43994</v>
       </c>
       <c r="B116" t="n">
-        <v>267.1141662597656</v>
+        <v>267.1141357421875</v>
       </c>
       <c r="C116" t="n">
         <v>285.1499938964844</v>
@@ -3147,7 +3147,7 @@
         <v>43998</v>
       </c>
       <c r="B118" t="n">
-        <v>274.4675903320312</v>
+        <v>274.4676208496094</v>
       </c>
       <c r="C118" t="n">
         <v>293</v>
@@ -3170,7 +3170,7 @@
         <v>43999</v>
       </c>
       <c r="B119" t="n">
-        <v>274.0928955078125</v>
+        <v>274.0929565429688</v>
       </c>
       <c r="C119" t="n">
         <v>292.6000061035156</v>
@@ -3193,7 +3193,7 @@
         <v>44000</v>
       </c>
       <c r="B120" t="n">
-        <v>273.043701171875</v>
+        <v>273.0438232421875</v>
       </c>
       <c r="C120" t="n">
         <v>291.4800109863281</v>
@@ -3216,7 +3216,7 @@
         <v>44001</v>
       </c>
       <c r="B121" t="n">
-        <v>273.9939880371094</v>
+        <v>273.993896484375</v>
       </c>
       <c r="C121" t="n">
         <v>291.239990234375</v>
@@ -3239,7 +3239,7 @@
         <v>44004</v>
       </c>
       <c r="B122" t="n">
-        <v>275.3392028808594</v>
+        <v>275.3392639160156</v>
       </c>
       <c r="C122" t="n">
         <v>292.6700134277344</v>
@@ -3285,7 +3285,7 @@
         <v>44006</v>
       </c>
       <c r="B124" t="n">
-        <v>272.055908203125</v>
+        <v>272.0558776855469</v>
       </c>
       <c r="C124" t="n">
         <v>289.1799926757812</v>
@@ -3308,7 +3308,7 @@
         <v>44007</v>
       </c>
       <c r="B125" t="n">
-        <v>278.6790161132812</v>
+        <v>278.6789855957031</v>
       </c>
       <c r="C125" t="n">
         <v>296.2200012207031</v>
@@ -3377,7 +3377,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>277.4842529296875</v>
+        <v>277.4841918945312</v>
       </c>
       <c r="C128" t="n">
         <v>294.9500122070312</v>
@@ -3400,7 +3400,7 @@
         <v>44013</v>
       </c>
       <c r="B129" t="n">
-        <v>280.0995483398438</v>
+        <v>280.099609375</v>
       </c>
       <c r="C129" t="n">
         <v>297.7300109863281</v>
@@ -3423,7 +3423,7 @@
         <v>44014</v>
       </c>
       <c r="B130" t="n">
-        <v>280.5982666015625</v>
+        <v>280.5983276367188</v>
       </c>
       <c r="C130" t="n">
         <v>298.260009765625</v>
@@ -3446,7 +3446,7 @@
         <v>44018</v>
       </c>
       <c r="B131" t="n">
-        <v>284.8788452148438</v>
+        <v>284.8788146972656</v>
       </c>
       <c r="C131" t="n">
         <v>302.8099975585938</v>
@@ -3515,7 +3515,7 @@
         <v>44021</v>
       </c>
       <c r="B134" t="n">
-        <v>273.9186706542969</v>
+        <v>273.9186401367188</v>
       </c>
       <c r="C134" t="n">
         <v>291.1600036621094</v>
@@ -3538,7 +3538,7 @@
         <v>44022</v>
       </c>
       <c r="B135" t="n">
-        <v>273.9845886230469</v>
+        <v>273.9844970703125</v>
       </c>
       <c r="C135" t="n">
         <v>291.2300109863281</v>
@@ -3584,7 +3584,7 @@
         <v>44026</v>
       </c>
       <c r="B137" t="n">
-        <v>290.2506408691406</v>
+        <v>290.2507019042969</v>
       </c>
       <c r="C137" t="n">
         <v>308.5199890136719</v>
@@ -3607,7 +3607,7 @@
         <v>44027</v>
       </c>
       <c r="B138" t="n">
-        <v>286.064208984375</v>
+        <v>286.0641784667969</v>
       </c>
       <c r="C138" t="n">
         <v>304.0700073242188</v>
@@ -3653,7 +3653,7 @@
         <v>44029</v>
       </c>
       <c r="B140" t="n">
-        <v>288.3785705566406</v>
+        <v>288.3785400390625</v>
       </c>
       <c r="C140" t="n">
         <v>306.5299987792969</v>
@@ -3676,7 +3676,7 @@
         <v>44032</v>
       </c>
       <c r="B141" t="n">
-        <v>285.4903564453125</v>
+        <v>285.4903259277344</v>
       </c>
       <c r="C141" t="n">
         <v>303.4599914550781</v>
@@ -3722,7 +3722,7 @@
         <v>44034</v>
       </c>
       <c r="B143" t="n">
-        <v>288.5478820800781</v>
+        <v>288.5478515625</v>
       </c>
       <c r="C143" t="n">
         <v>306.7099914550781</v>
@@ -3745,7 +3745,7 @@
         <v>44035</v>
       </c>
       <c r="B144" t="n">
-        <v>285.029296875</v>
+        <v>285.0293273925781</v>
       </c>
       <c r="C144" t="n">
         <v>302.9700012207031</v>
@@ -3791,7 +3791,7 @@
         <v>44039</v>
       </c>
       <c r="B146" t="n">
-        <v>280.9181823730469</v>
+        <v>280.9181213378906</v>
       </c>
       <c r="C146" t="n">
         <v>298.6000061035156</v>
@@ -3814,7 +3814,7 @@
         <v>44040</v>
       </c>
       <c r="B147" t="n">
-        <v>282.1693725585938</v>
+        <v>282.1693115234375</v>
       </c>
       <c r="C147" t="n">
         <v>299.9299926757812</v>
@@ -3837,7 +3837,7 @@
         <v>44041</v>
       </c>
       <c r="B148" t="n">
-        <v>288.5196838378906</v>
+        <v>288.5196533203125</v>
       </c>
       <c r="C148" t="n">
         <v>306.6799926757812</v>
@@ -3883,7 +3883,7 @@
         <v>44043</v>
       </c>
       <c r="B150" t="n">
-        <v>284.8505554199219</v>
+        <v>284.8505859375</v>
       </c>
       <c r="C150" t="n">
         <v>302.7799987792969</v>
@@ -3906,7 +3906,7 @@
         <v>44046</v>
       </c>
       <c r="B151" t="n">
-        <v>285.6314697265625</v>
+        <v>285.6314392089844</v>
       </c>
       <c r="C151" t="n">
         <v>303.6099853515625</v>
@@ -3929,7 +3929,7 @@
         <v>44047</v>
       </c>
       <c r="B152" t="n">
-        <v>286.4687805175781</v>
+        <v>286.46875</v>
       </c>
       <c r="C152" t="n">
         <v>304.5</v>
@@ -3952,7 +3952,7 @@
         <v>44048</v>
       </c>
       <c r="B153" t="n">
-        <v>293.9667053222656</v>
+        <v>293.9667663574219</v>
       </c>
       <c r="C153" t="n">
         <v>312.4700012207031</v>
@@ -3975,7 +3975,7 @@
         <v>44049</v>
       </c>
       <c r="B154" t="n">
-        <v>295.462646484375</v>
+        <v>295.4625854492188</v>
       </c>
       <c r="C154" t="n">
         <v>314.0599975585938</v>
@@ -4021,7 +4021,7 @@
         <v>44053</v>
       </c>
       <c r="B156" t="n">
-        <v>300.2041625976562</v>
+        <v>300.2041320800781</v>
       </c>
       <c r="C156" t="n">
         <v>319.1000061035156</v>
@@ -4044,7 +4044,7 @@
         <v>44054</v>
       </c>
       <c r="B157" t="n">
-        <v>296.8643798828125</v>
+        <v>296.8644104003906</v>
       </c>
       <c r="C157" t="n">
         <v>315.5499877929688</v>
@@ -4067,7 +4067,7 @@
         <v>44055</v>
       </c>
       <c r="B158" t="n">
-        <v>303.1864318847656</v>
+        <v>303.1864624023438</v>
       </c>
       <c r="C158" t="n">
         <v>322.2699890136719</v>
@@ -4090,7 +4090,7 @@
         <v>44056</v>
       </c>
       <c r="B159" t="n">
-        <v>302.4808654785156</v>
+        <v>302.4808959960938</v>
       </c>
       <c r="C159" t="n">
         <v>321.5199890136719</v>
@@ -4113,7 +4113,7 @@
         <v>44057</v>
       </c>
       <c r="B160" t="n">
-        <v>304.5317993164062</v>
+        <v>304.5317687988281</v>
       </c>
       <c r="C160" t="n">
         <v>323.7000122070312</v>
@@ -4136,7 +4136,7 @@
         <v>44060</v>
       </c>
       <c r="B161" t="n">
-        <v>301.5307006835938</v>
+        <v>301.5306701660156</v>
       </c>
       <c r="C161" t="n">
         <v>320.510009765625</v>
@@ -4159,7 +4159,7 @@
         <v>44061</v>
       </c>
       <c r="B162" t="n">
-        <v>298.0497436523438</v>
+        <v>298.0497741699219</v>
       </c>
       <c r="C162" t="n">
         <v>316.8099975585938</v>
@@ -4205,7 +4205,7 @@
         <v>44063</v>
       </c>
       <c r="B164" t="n">
-        <v>294.7759094238281</v>
+        <v>294.7758483886719</v>
       </c>
       <c r="C164" t="n">
         <v>313.3299865722656</v>
@@ -4228,7 +4228,7 @@
         <v>44064</v>
       </c>
       <c r="B165" t="n">
-        <v>295.5378723144531</v>
+        <v>295.5379028320312</v>
       </c>
       <c r="C165" t="n">
         <v>314.1400146484375</v>
@@ -4251,7 +4251,7 @@
         <v>44067</v>
       </c>
       <c r="B166" t="n">
-        <v>290.5516967773438</v>
+        <v>290.5517272949219</v>
       </c>
       <c r="C166" t="n">
         <v>308.8399963378906</v>
@@ -4274,7 +4274,7 @@
         <v>44068</v>
       </c>
       <c r="B167" t="n">
-        <v>293.7315673828125</v>
+        <v>293.7316284179688</v>
       </c>
       <c r="C167" t="n">
         <v>312.2200012207031</v>
@@ -4297,7 +4297,7 @@
         <v>44069</v>
       </c>
       <c r="B168" t="n">
-        <v>290.5329895019531</v>
+        <v>290.5329284667969</v>
       </c>
       <c r="C168" t="n">
         <v>308.8200073242188</v>
@@ -4343,7 +4343,7 @@
         <v>44071</v>
       </c>
       <c r="B170" t="n">
-        <v>295.7542724609375</v>
+        <v>295.7542419433594</v>
       </c>
       <c r="C170" t="n">
         <v>314.3699951171875</v>
@@ -4366,7 +4366,7 @@
         <v>44074</v>
       </c>
       <c r="B171" t="n">
-        <v>294.0420532226562</v>
+        <v>294.0419921875</v>
       </c>
       <c r="C171" t="n">
         <v>312.5499877929688</v>
@@ -4389,7 +4389,7 @@
         <v>44075</v>
       </c>
       <c r="B172" t="n">
-        <v>294.3054504394531</v>
+        <v>294.305419921875</v>
       </c>
       <c r="C172" t="n">
         <v>312.8299865722656</v>
@@ -4412,7 +4412,7 @@
         <v>44076</v>
       </c>
       <c r="B173" t="n">
-        <v>301.2766723632812</v>
+        <v>301.2766418457031</v>
       </c>
       <c r="C173" t="n">
         <v>320.239990234375</v>
@@ -4435,7 +4435,7 @@
         <v>44077</v>
       </c>
       <c r="B174" t="n">
-        <v>297.5041198730469</v>
+        <v>297.5041809082031</v>
       </c>
       <c r="C174" t="n">
         <v>316.2300109863281</v>
@@ -4481,7 +4481,7 @@
         <v>44082</v>
       </c>
       <c r="B176" t="n">
-        <v>289.0558471679688</v>
+        <v>289.0558776855469</v>
       </c>
       <c r="C176" t="n">
         <v>307.25</v>
@@ -4527,7 +4527,7 @@
         <v>44084</v>
       </c>
       <c r="B178" t="n">
-        <v>286.5628051757812</v>
+        <v>286.5627746582031</v>
       </c>
       <c r="C178" t="n">
         <v>304.6000061035156</v>
@@ -4550,7 +4550,7 @@
         <v>44085</v>
       </c>
       <c r="B179" t="n">
-        <v>284.7962951660156</v>
+        <v>284.7962036132812</v>
       </c>
       <c r="C179" t="n">
         <v>301.4800109863281</v>
@@ -4573,7 +4573,7 @@
         <v>44088</v>
       </c>
       <c r="B180" t="n">
-        <v>291.4939575195312</v>
+        <v>291.4939270019531</v>
       </c>
       <c r="C180" t="n">
         <v>308.5700073242188</v>
@@ -4596,7 +4596,7 @@
         <v>44089</v>
       </c>
       <c r="B181" t="n">
-        <v>290.2281494140625</v>
+        <v>290.2280578613281</v>
       </c>
       <c r="C181" t="n">
         <v>307.2300109863281</v>
@@ -4619,7 +4619,7 @@
         <v>44090</v>
       </c>
       <c r="B182" t="n">
-        <v>289.557373046875</v>
+        <v>289.5574035644531</v>
       </c>
       <c r="C182" t="n">
         <v>306.5199890136719</v>
@@ -4642,7 +4642,7 @@
         <v>44091</v>
       </c>
       <c r="B183" t="n">
-        <v>288.1026306152344</v>
+        <v>288.1026000976562</v>
       </c>
       <c r="C183" t="n">
         <v>304.9800109863281</v>
@@ -4665,7 +4665,7 @@
         <v>44092</v>
       </c>
       <c r="B184" t="n">
-        <v>290.9743347167969</v>
+        <v>290.974365234375</v>
       </c>
       <c r="C184" t="n">
         <v>308.0199890136719</v>
@@ -4688,7 +4688,7 @@
         <v>44095</v>
       </c>
       <c r="B185" t="n">
-        <v>282.6329956054688</v>
+        <v>282.633056640625</v>
       </c>
       <c r="C185" t="n">
         <v>299.1900024414062</v>
@@ -4711,7 +4711,7 @@
         <v>44096</v>
       </c>
       <c r="B186" t="n">
-        <v>277.975830078125</v>
+        <v>277.9758911132812</v>
       </c>
       <c r="C186" t="n">
         <v>294.260009765625</v>
@@ -4734,7 +4734,7 @@
         <v>44097</v>
       </c>
       <c r="B187" t="n">
-        <v>275.9731750488281</v>
+        <v>275.9732055664062</v>
       </c>
       <c r="C187" t="n">
         <v>292.1400146484375</v>
@@ -4757,7 +4757,7 @@
         <v>44098</v>
       </c>
       <c r="B188" t="n">
-        <v>276.46435546875</v>
+        <v>276.4643859863281</v>
       </c>
       <c r="C188" t="n">
         <v>292.6600036621094</v>
@@ -4780,7 +4780,7 @@
         <v>44099</v>
       </c>
       <c r="B189" t="n">
-        <v>285.7598876953125</v>
+        <v>285.7598266601562</v>
       </c>
       <c r="C189" t="n">
         <v>302.5</v>
@@ -4803,7 +4803,7 @@
         <v>44102</v>
       </c>
       <c r="B190" t="n">
-        <v>286.449462890625</v>
+        <v>286.4493713378906</v>
       </c>
       <c r="C190" t="n">
         <v>303.2300109863281</v>
@@ -4826,7 +4826,7 @@
         <v>44103</v>
       </c>
       <c r="B191" t="n">
-        <v>287.3185424804688</v>
+        <v>287.3185119628906</v>
       </c>
       <c r="C191" t="n">
         <v>304.1499938964844</v>
@@ -4872,7 +4872,7 @@
         <v>44105</v>
       </c>
       <c r="B193" t="n">
-        <v>295.744873046875</v>
+        <v>295.7449035644531</v>
       </c>
       <c r="C193" t="n">
         <v>313.0700073242188</v>
@@ -4895,7 +4895,7 @@
         <v>44106</v>
       </c>
       <c r="B194" t="n">
-        <v>294.7152099609375</v>
+        <v>294.7151794433594</v>
       </c>
       <c r="C194" t="n">
         <v>311.9800109863281</v>
@@ -4918,7 +4918,7 @@
         <v>44109</v>
       </c>
       <c r="B195" t="n">
-        <v>300.5437927246094</v>
+        <v>300.5438537597656</v>
       </c>
       <c r="C195" t="n">
         <v>318.1499938964844</v>
@@ -4941,7 +4941,7 @@
         <v>44110</v>
       </c>
       <c r="B196" t="n">
-        <v>297.0485534667969</v>
+        <v>297.0485229492188</v>
       </c>
       <c r="C196" t="n">
         <v>314.4500122070312</v>
@@ -4964,7 +4964,7 @@
         <v>44111</v>
       </c>
       <c r="B197" t="n">
-        <v>305.2859802246094</v>
+        <v>305.2859497070312</v>
       </c>
       <c r="C197" t="n">
         <v>323.1700134277344</v>
@@ -5056,7 +5056,7 @@
         <v>44117</v>
       </c>
       <c r="B201" t="n">
-        <v>313.0794677734375</v>
+        <v>313.0794372558594</v>
       </c>
       <c r="C201" t="n">
         <v>331.4200134277344</v>
@@ -5079,7 +5079,7 @@
         <v>44118</v>
       </c>
       <c r="B202" t="n">
-        <v>304.0390014648438</v>
+        <v>304.0390625</v>
       </c>
       <c r="C202" t="n">
         <v>321.8500061035156</v>
@@ -5102,7 +5102,7 @@
         <v>44119</v>
       </c>
       <c r="B203" t="n">
-        <v>306.6085815429688</v>
+        <v>306.6085205078125</v>
       </c>
       <c r="C203" t="n">
         <v>324.5700073242188</v>
@@ -5125,7 +5125,7 @@
         <v>44120</v>
       </c>
       <c r="B204" t="n">
-        <v>311.6435546875</v>
+        <v>311.6435241699219</v>
       </c>
       <c r="C204" t="n">
         <v>329.8999938964844</v>
@@ -5148,7 +5148,7 @@
         <v>44123</v>
       </c>
       <c r="B205" t="n">
-        <v>306.2778625488281</v>
+        <v>306.27783203125</v>
       </c>
       <c r="C205" t="n">
         <v>324.2200012207031</v>
@@ -5171,7 +5171,7 @@
         <v>44124</v>
       </c>
       <c r="B206" t="n">
-        <v>305.5126953125</v>
+        <v>305.5127258300781</v>
       </c>
       <c r="C206" t="n">
         <v>323.4100036621094</v>
@@ -5194,7 +5194,7 @@
         <v>44125</v>
       </c>
       <c r="B207" t="n">
-        <v>304.927001953125</v>
+        <v>304.9270324707031</v>
       </c>
       <c r="C207" t="n">
         <v>322.7900085449219</v>
@@ -5240,7 +5240,7 @@
         <v>44127</v>
       </c>
       <c r="B209" t="n">
-        <v>312.3047790527344</v>
+        <v>312.3048095703125</v>
       </c>
       <c r="C209" t="n">
         <v>330.6000061035156</v>
@@ -5309,7 +5309,7 @@
         <v>44132</v>
       </c>
       <c r="B212" t="n">
-        <v>290.9554443359375</v>
+        <v>290.9555053710938</v>
       </c>
       <c r="C212" t="n">
         <v>308</v>
@@ -5332,7 +5332,7 @@
         <v>44133</v>
       </c>
       <c r="B213" t="n">
-        <v>286.8744812011719</v>
+        <v>286.8745727539062</v>
       </c>
       <c r="C213" t="n">
         <v>303.6799926757812</v>
@@ -5378,7 +5378,7 @@
         <v>44137</v>
       </c>
       <c r="B215" t="n">
-        <v>294.8285522460938</v>
+        <v>294.8285217285156</v>
       </c>
       <c r="C215" t="n">
         <v>312.1000061035156</v>
@@ -5401,7 +5401,7 @@
         <v>44138</v>
       </c>
       <c r="B216" t="n">
-        <v>303.5667419433594</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="C216" t="n">
         <v>321.3500061035156</v>
@@ -5424,7 +5424,7 @@
         <v>44139</v>
       </c>
       <c r="B217" t="n">
-        <v>334.9388732910156</v>
+        <v>334.9389038085938</v>
       </c>
       <c r="C217" t="n">
         <v>354.5599975585938</v>
@@ -5493,7 +5493,7 @@
         <v>44144</v>
       </c>
       <c r="B220" t="n">
-        <v>330.6311645507812</v>
+        <v>330.6312561035156</v>
       </c>
       <c r="C220" t="n">
         <v>350</v>
@@ -5562,7 +5562,7 @@
         <v>44147</v>
       </c>
       <c r="B223" t="n">
-        <v>334.7971801757812</v>
+        <v>334.7972717285156</v>
       </c>
       <c r="C223" t="n">
         <v>354.4100036621094</v>
@@ -5585,7 +5585,7 @@
         <v>44148</v>
       </c>
       <c r="B224" t="n">
-        <v>335.9874572753906</v>
+        <v>335.9873962402344</v>
       </c>
       <c r="C224" t="n">
         <v>355.6700134277344</v>
@@ -5608,7 +5608,7 @@
         <v>44151</v>
       </c>
       <c r="B225" t="n">
-        <v>337.0738220214844</v>
+        <v>337.0737915039062</v>
       </c>
       <c r="C225" t="n">
         <v>356.8200073242188</v>
@@ -5631,7 +5631,7 @@
         <v>44152</v>
       </c>
       <c r="B226" t="n">
-        <v>332.6150207519531</v>
+        <v>332.614990234375</v>
       </c>
       <c r="C226" t="n">
         <v>352.1000061035156</v>
@@ -5654,7 +5654,7 @@
         <v>44153</v>
       </c>
       <c r="B227" t="n">
-        <v>325.445068359375</v>
+        <v>325.4450988769531</v>
       </c>
       <c r="C227" t="n">
         <v>344.510009765625</v>
@@ -5677,7 +5677,7 @@
         <v>44154</v>
       </c>
       <c r="B228" t="n">
-        <v>318.3505859375</v>
+        <v>318.3506469726562</v>
       </c>
       <c r="C228" t="n">
         <v>337</v>
@@ -5723,7 +5723,7 @@
         <v>44158</v>
       </c>
       <c r="B230" t="n">
-        <v>316.5179443359375</v>
+        <v>316.5180358886719</v>
       </c>
       <c r="C230" t="n">
         <v>335.0599975585938</v>
@@ -5746,7 +5746,7 @@
         <v>44159</v>
       </c>
       <c r="B231" t="n">
-        <v>317.4154357910156</v>
+        <v>317.4154052734375</v>
       </c>
       <c r="C231" t="n">
         <v>336.010009765625</v>
@@ -5792,7 +5792,7 @@
         <v>44162</v>
       </c>
       <c r="B233" t="n">
-        <v>319.2386169433594</v>
+        <v>319.2385864257812</v>
       </c>
       <c r="C233" t="n">
         <v>337.9400024414062</v>
@@ -5815,7 +5815,7 @@
         <v>44165</v>
       </c>
       <c r="B234" t="n">
-        <v>317.7271728515625</v>
+        <v>317.7271423339844</v>
       </c>
       <c r="C234" t="n">
         <v>336.3399963378906</v>
@@ -5861,7 +5861,7 @@
         <v>44167</v>
       </c>
       <c r="B236" t="n">
-        <v>328.3262634277344</v>
+        <v>328.3262329101562</v>
       </c>
       <c r="C236" t="n">
         <v>347.5599975585938</v>
@@ -5884,7 +5884,7 @@
         <v>44168</v>
       </c>
       <c r="B237" t="n">
-        <v>329.3842163085938</v>
+        <v>329.3843078613281</v>
       </c>
       <c r="C237" t="n">
         <v>348.6799926757812</v>
@@ -5930,7 +5930,7 @@
         <v>44172</v>
       </c>
       <c r="B239" t="n">
-        <v>329.7918701171875</v>
+        <v>329.7919311523438</v>
       </c>
       <c r="C239" t="n">
         <v>347.8599853515625</v>
@@ -5953,7 +5953,7 @@
         <v>44173</v>
       </c>
       <c r="B240" t="n">
-        <v>329.7918701171875</v>
+        <v>329.7919311523438</v>
       </c>
       <c r="C240" t="n">
         <v>347.8599853515625</v>
@@ -5976,7 +5976,7 @@
         <v>44174</v>
       </c>
       <c r="B241" t="n">
-        <v>326.5211486816406</v>
+        <v>326.5211181640625</v>
       </c>
       <c r="C241" t="n">
         <v>344.4100036621094</v>
@@ -5999,7 +5999,7 @@
         <v>44175</v>
       </c>
       <c r="B242" t="n">
-        <v>322.0082702636719</v>
+        <v>322.0083618164062</v>
       </c>
       <c r="C242" t="n">
         <v>339.6499938964844</v>
@@ -6045,7 +6045,7 @@
         <v>44179</v>
       </c>
       <c r="B244" t="n">
-        <v>318.6711730957031</v>
+        <v>318.671142578125</v>
       </c>
       <c r="C244" t="n">
         <v>336.1300048828125</v>
@@ -6068,7 +6068,7 @@
         <v>44180</v>
       </c>
       <c r="B245" t="n">
-        <v>322.0272827148438</v>
+        <v>322.0273132324219</v>
       </c>
       <c r="C245" t="n">
         <v>339.6700134277344</v>
@@ -6091,7 +6091,7 @@
         <v>44181</v>
       </c>
       <c r="B246" t="n">
-        <v>321.7144165039062</v>
+        <v>321.7144775390625</v>
       </c>
       <c r="C246" t="n">
         <v>339.3399963378906</v>
@@ -6137,7 +6137,7 @@
         <v>44183</v>
       </c>
       <c r="B248" t="n">
-        <v>320.8043212890625</v>
+        <v>320.8042907714844</v>
       </c>
       <c r="C248" t="n">
         <v>338.3800048828125</v>
@@ -6160,7 +6160,7 @@
         <v>44186</v>
       </c>
       <c r="B249" t="n">
-        <v>318.6238098144531</v>
+        <v>318.6237487792969</v>
       </c>
       <c r="C249" t="n">
         <v>336.0799865722656</v>
@@ -6183,7 +6183,7 @@
         <v>44187</v>
       </c>
       <c r="B250" t="n">
-        <v>317.6093444824219</v>
+        <v>317.609375</v>
       </c>
       <c r="C250" t="n">
         <v>335.010009765625</v>
@@ -6206,7 +6206,7 @@
         <v>44188</v>
       </c>
       <c r="B251" t="n">
-        <v>320.0553283691406</v>
+        <v>320.0553894042969</v>
       </c>
       <c r="C251" t="n">
         <v>337.5899963378906</v>
@@ -6252,7 +6252,7 @@
         <v>44193</v>
       </c>
       <c r="B253" t="n">
-        <v>327.9811401367188</v>
+        <v>327.9811096191406</v>
       </c>
       <c r="C253" t="n">
         <v>345.9500122070312</v>
@@ -6275,7 +6275,7 @@
         <v>44194</v>
       </c>
       <c r="B254" t="n">
-        <v>329.3083801269531</v>
+        <v>329.3084106445312</v>
       </c>
       <c r="C254" t="n">
         <v>347.3500061035156</v>
@@ -6321,7 +6321,7 @@
         <v>44196</v>
       </c>
       <c r="B256" t="n">
-        <v>332.4653930664062</v>
+        <v>332.4654846191406</v>
       </c>
       <c r="C256" t="n">
         <v>350.6799926757812</v>
@@ -6390,7 +6390,7 @@
         <v>44202</v>
       </c>
       <c r="B259" t="n">
-        <v>340.6092834472656</v>
+        <v>340.6092529296875</v>
       </c>
       <c r="C259" t="n">
         <v>359.2699890136719</v>
@@ -6413,7 +6413,7 @@
         <v>44203</v>
       </c>
       <c r="B260" t="n">
-        <v>346.070068359375</v>
+        <v>346.0701293945312</v>
       </c>
       <c r="C260" t="n">
         <v>365.0299987792969</v>
@@ -6436,7 +6436,7 @@
         <v>44204</v>
       </c>
       <c r="B261" t="n">
-        <v>344.5152893066406</v>
+        <v>344.5152587890625</v>
       </c>
       <c r="C261" t="n">
         <v>363.3900146484375</v>
@@ -6459,7 +6459,7 @@
         <v>44207</v>
       </c>
       <c r="B262" t="n">
-        <v>342.0124206542969</v>
+        <v>342.012451171875</v>
       </c>
       <c r="C262" t="n">
         <v>360.75</v>
@@ -6482,7 +6482,7 @@
         <v>44208</v>
       </c>
       <c r="B263" t="n">
-        <v>338.8079528808594</v>
+        <v>338.8080139160156</v>
       </c>
       <c r="C263" t="n">
         <v>357.3699951171875</v>
@@ -6505,7 +6505,7 @@
         <v>44209</v>
       </c>
       <c r="B264" t="n">
-        <v>336.5989379882812</v>
+        <v>336.5990295410156</v>
       </c>
       <c r="C264" t="n">
         <v>355.0400085449219</v>
@@ -6528,7 +6528,7 @@
         <v>44210</v>
       </c>
       <c r="B265" t="n">
-        <v>332.3233032226562</v>
+        <v>332.3232421875</v>
       </c>
       <c r="C265" t="n">
         <v>350.5299987792969</v>
@@ -6551,7 +6551,7 @@
         <v>44211</v>
       </c>
       <c r="B266" t="n">
-        <v>333.0532531738281</v>
+        <v>333.0531921386719</v>
       </c>
       <c r="C266" t="n">
         <v>351.2999877929688</v>
@@ -6574,7 +6574,7 @@
         <v>44215</v>
       </c>
       <c r="B267" t="n">
-        <v>333.8970336914062</v>
+        <v>333.8970642089844</v>
       </c>
       <c r="C267" t="n">
         <v>352.1900024414062</v>
@@ -6597,7 +6597,7 @@
         <v>44216</v>
       </c>
       <c r="B268" t="n">
-        <v>332.6170654296875</v>
+        <v>332.6171569824219</v>
       </c>
       <c r="C268" t="n">
         <v>350.8399963378906</v>
@@ -6620,7 +6620,7 @@
         <v>44217</v>
       </c>
       <c r="B269" t="n">
-        <v>336.5610656738281</v>
+        <v>336.5611267089844</v>
       </c>
       <c r="C269" t="n">
         <v>355</v>
@@ -6643,7 +6643,7 @@
         <v>44218</v>
       </c>
       <c r="B270" t="n">
-        <v>329.498046875</v>
+        <v>329.4979858398438</v>
       </c>
       <c r="C270" t="n">
         <v>347.5499877929688</v>
@@ -6666,7 +6666,7 @@
         <v>44221</v>
       </c>
       <c r="B271" t="n">
-        <v>329.7445068359375</v>
+        <v>329.7445373535156</v>
       </c>
       <c r="C271" t="n">
         <v>347.8099975585938</v>
@@ -6689,7 +6689,7 @@
         <v>44222</v>
       </c>
       <c r="B272" t="n">
-        <v>325.2886657714844</v>
+        <v>325.2886047363281</v>
       </c>
       <c r="C272" t="n">
         <v>343.1099853515625</v>
@@ -6712,7 +6712,7 @@
         <v>44223</v>
       </c>
       <c r="B273" t="n">
-        <v>315.6943359375</v>
+        <v>315.6942749023438</v>
       </c>
       <c r="C273" t="n">
         <v>332.989990234375</v>
@@ -6758,7 +6758,7 @@
         <v>44225</v>
       </c>
       <c r="B275" t="n">
-        <v>316.2536315917969</v>
+        <v>316.2536010742188</v>
       </c>
       <c r="C275" t="n">
         <v>333.5799865722656</v>
@@ -6781,7 +6781,7 @@
         <v>44228</v>
       </c>
       <c r="B276" t="n">
-        <v>316.6518249511719</v>
+        <v>316.6517639160156</v>
       </c>
       <c r="C276" t="n">
         <v>334</v>
@@ -6804,7 +6804,7 @@
         <v>44229</v>
       </c>
       <c r="B277" t="n">
-        <v>321.1266479492188</v>
+        <v>321.1266174316406</v>
       </c>
       <c r="C277" t="n">
         <v>338.7200012207031</v>
@@ -6827,7 +6827,7 @@
         <v>44230</v>
       </c>
       <c r="B278" t="n">
-        <v>320.3397827148438</v>
+        <v>320.33984375</v>
       </c>
       <c r="C278" t="n">
         <v>337.8900146484375</v>
@@ -6850,7 +6850,7 @@
         <v>44231</v>
       </c>
       <c r="B279" t="n">
-        <v>312.2149658203125</v>
+        <v>312.2148742675781</v>
       </c>
       <c r="C279" t="n">
         <v>329.3200073242188</v>
@@ -6873,7 +6873,7 @@
         <v>44232</v>
       </c>
       <c r="B280" t="n">
-        <v>307.65478515625</v>
+        <v>307.6547546386719</v>
       </c>
       <c r="C280" t="n">
         <v>324.510009765625</v>
@@ -6896,7 +6896,7 @@
         <v>44235</v>
       </c>
       <c r="B281" t="n">
-        <v>307.4935607910156</v>
+        <v>307.4935913085938</v>
       </c>
       <c r="C281" t="n">
         <v>324.3399963378906</v>
@@ -6942,7 +6942,7 @@
         <v>44237</v>
       </c>
       <c r="B283" t="n">
-        <v>316.0829772949219</v>
+        <v>316.0829162597656</v>
       </c>
       <c r="C283" t="n">
         <v>333.3999938964844</v>
@@ -6965,7 +6965,7 @@
         <v>44238</v>
       </c>
       <c r="B284" t="n">
-        <v>315.7701721191406</v>
+        <v>315.7701110839844</v>
       </c>
       <c r="C284" t="n">
         <v>333.0700073242188</v>
@@ -6988,7 +6988,7 @@
         <v>44239</v>
       </c>
       <c r="B285" t="n">
-        <v>311.1910705566406</v>
+        <v>311.1909484863281</v>
       </c>
       <c r="C285" t="n">
         <v>328.239990234375</v>
@@ -7011,7 +7011,7 @@
         <v>44243</v>
       </c>
       <c r="B286" t="n">
-        <v>307.7590637207031</v>
+        <v>307.759033203125</v>
       </c>
       <c r="C286" t="n">
         <v>324.6199951171875</v>
@@ -7034,7 +7034,7 @@
         <v>44244</v>
       </c>
       <c r="B287" t="n">
-        <v>309.8826904296875</v>
+        <v>309.8826293945312</v>
       </c>
       <c r="C287" t="n">
         <v>326.8599853515625</v>
@@ -7057,7 +7057,7 @@
         <v>44245</v>
       </c>
       <c r="B288" t="n">
-        <v>311.3521423339844</v>
+        <v>311.3521118164062</v>
       </c>
       <c r="C288" t="n">
         <v>328.4100036621094</v>
@@ -7080,7 +7080,7 @@
         <v>44246</v>
       </c>
       <c r="B289" t="n">
-        <v>307.7211303710938</v>
+        <v>307.7210693359375</v>
       </c>
       <c r="C289" t="n">
         <v>324.5799865722656</v>
@@ -7103,7 +7103,7 @@
         <v>44249</v>
       </c>
       <c r="B290" t="n">
-        <v>310.6221923828125</v>
+        <v>310.6221313476562</v>
       </c>
       <c r="C290" t="n">
         <v>327.6400146484375</v>
@@ -7126,7 +7126,7 @@
         <v>44250</v>
       </c>
       <c r="B291" t="n">
-        <v>312.39501953125</v>
+        <v>312.3950500488281</v>
       </c>
       <c r="C291" t="n">
         <v>329.510009765625</v>
@@ -7149,7 +7149,7 @@
         <v>44251</v>
       </c>
       <c r="B292" t="n">
-        <v>314.9548034667969</v>
+        <v>314.9547424316406</v>
       </c>
       <c r="C292" t="n">
         <v>332.2099914550781</v>
@@ -7172,7 +7172,7 @@
         <v>44252</v>
       </c>
       <c r="B293" t="n">
-        <v>311.7882690429688</v>
+        <v>311.7882995605469</v>
       </c>
       <c r="C293" t="n">
         <v>328.8699951171875</v>
@@ -7195,7 +7195,7 @@
         <v>44253</v>
       </c>
       <c r="B294" t="n">
-        <v>314.9643249511719</v>
+        <v>314.9642639160156</v>
       </c>
       <c r="C294" t="n">
         <v>332.2200012207031</v>
@@ -7218,7 +7218,7 @@
         <v>44256</v>
       </c>
       <c r="B295" t="n">
-        <v>317.2680053710938</v>
+        <v>317.2680969238281</v>
       </c>
       <c r="C295" t="n">
         <v>334.6499938964844</v>
@@ -7264,7 +7264,7 @@
         <v>44258</v>
       </c>
       <c r="B297" t="n">
-        <v>315.5805358886719</v>
+        <v>315.5805053710938</v>
       </c>
       <c r="C297" t="n">
         <v>332.8699951171875</v>
@@ -7287,7 +7287,7 @@
         <v>44259</v>
       </c>
       <c r="B298" t="n">
-        <v>316.4716796875</v>
+        <v>316.4717102050781</v>
       </c>
       <c r="C298" t="n">
         <v>333.8099975585938</v>
@@ -7310,7 +7310,7 @@
         <v>44260</v>
       </c>
       <c r="B299" t="n">
-        <v>329.0714111328125</v>
+        <v>329.0714416503906</v>
       </c>
       <c r="C299" t="n">
         <v>347.1000061035156</v>
@@ -7402,7 +7402,7 @@
         <v>44266</v>
       </c>
       <c r="B303" t="n">
-        <v>334.7597351074219</v>
+        <v>334.7597045898438</v>
       </c>
       <c r="C303" t="n">
         <v>353.1000061035156</v>
@@ -7425,7 +7425,7 @@
         <v>44267</v>
       </c>
       <c r="B304" t="n">
-        <v>338.7272033691406</v>
+        <v>338.7272338867188</v>
       </c>
       <c r="C304" t="n">
         <v>356.0199890136719</v>
@@ -7448,7 +7448,7 @@
         <v>44270</v>
       </c>
       <c r="B305" t="n">
-        <v>336.691162109375</v>
+        <v>336.6911315917969</v>
       </c>
       <c r="C305" t="n">
         <v>353.8800048828125</v>
@@ -7471,7 +7471,7 @@
         <v>44271</v>
       </c>
       <c r="B306" t="n">
-        <v>337.376220703125</v>
+        <v>337.3762817382812</v>
       </c>
       <c r="C306" t="n">
         <v>354.6000061035156</v>
@@ -7494,7 +7494,7 @@
         <v>44272</v>
       </c>
       <c r="B307" t="n">
-        <v>335.0737609863281</v>
+        <v>335.0737915039062</v>
       </c>
       <c r="C307" t="n">
         <v>352.1799926757812</v>
@@ -7517,7 +7517,7 @@
         <v>44273</v>
       </c>
       <c r="B308" t="n">
-        <v>344.4643249511719</v>
+        <v>344.4642944335938</v>
       </c>
       <c r="C308" t="n">
         <v>362.0499877929688</v>
@@ -7540,7 +7540,7 @@
         <v>44274</v>
       </c>
       <c r="B309" t="n">
-        <v>347.82275390625</v>
+        <v>347.8228454589844</v>
       </c>
       <c r="C309" t="n">
         <v>365.5799865722656</v>
@@ -7563,7 +7563,7 @@
         <v>44277</v>
       </c>
       <c r="B310" t="n">
-        <v>349.0407104492188</v>
+        <v>349.0406799316406</v>
       </c>
       <c r="C310" t="n">
         <v>366.8599853515625</v>
@@ -7609,7 +7609,7 @@
         <v>44279</v>
       </c>
       <c r="B312" t="n">
-        <v>352.5990295410156</v>
+        <v>352.5989990234375</v>
       </c>
       <c r="C312" t="n">
         <v>370.6000061035156</v>
@@ -7632,7 +7632,7 @@
         <v>44280</v>
       </c>
       <c r="B313" t="n">
-        <v>353.0652160644531</v>
+        <v>353.0652465820312</v>
       </c>
       <c r="C313" t="n">
         <v>371.0899963378906</v>
@@ -7655,7 +7655,7 @@
         <v>44281</v>
       </c>
       <c r="B314" t="n">
-        <v>358.1934814453125</v>
+        <v>358.1933898925781</v>
       </c>
       <c r="C314" t="n">
         <v>376.4800109863281</v>
@@ -7678,7 +7678,7 @@
         <v>44284</v>
       </c>
       <c r="B315" t="n">
-        <v>360.6481323242188</v>
+        <v>360.6481018066406</v>
       </c>
       <c r="C315" t="n">
         <v>379.0599975585938</v>
@@ -7701,7 +7701,7 @@
         <v>44285</v>
       </c>
       <c r="B316" t="n">
-        <v>355.4152526855469</v>
+        <v>355.415283203125</v>
       </c>
       <c r="C316" t="n">
         <v>373.5599975585938</v>
@@ -7724,7 +7724,7 @@
         <v>44286</v>
       </c>
       <c r="B317" t="n">
-        <v>353.9976196289062</v>
+        <v>353.9976806640625</v>
       </c>
       <c r="C317" t="n">
         <v>372.0700073242188</v>
@@ -7747,7 +7747,7 @@
         <v>44287</v>
       </c>
       <c r="B318" t="n">
-        <v>349.2405090332031</v>
+        <v>349.240478515625</v>
       </c>
       <c r="C318" t="n">
         <v>367.0700073242188</v>
@@ -7770,7 +7770,7 @@
         <v>44291</v>
       </c>
       <c r="B319" t="n">
-        <v>352.1994323730469</v>
+        <v>352.199462890625</v>
       </c>
       <c r="C319" t="n">
         <v>370.1799926757812</v>
@@ -7793,7 +7793,7 @@
         <v>44292</v>
       </c>
       <c r="B320" t="n">
-        <v>346.6716613769531</v>
+        <v>346.6716003417969</v>
       </c>
       <c r="C320" t="n">
         <v>364.3699951171875</v>
@@ -7816,7 +7816,7 @@
         <v>44293</v>
       </c>
       <c r="B321" t="n">
-        <v>347.8799438476562</v>
+        <v>347.8799743652344</v>
       </c>
       <c r="C321" t="n">
         <v>365.6400146484375</v>
@@ -7839,7 +7839,7 @@
         <v>44294</v>
       </c>
       <c r="B322" t="n">
-        <v>347.1663513183594</v>
+        <v>347.1663818359375</v>
       </c>
       <c r="C322" t="n">
         <v>364.8900146484375</v>
@@ -7862,7 +7862,7 @@
         <v>44295</v>
       </c>
       <c r="B323" t="n">
-        <v>358.0221252441406</v>
+        <v>358.0221557617188</v>
       </c>
       <c r="C323" t="n">
         <v>376.2999877929688</v>
@@ -7908,7 +7908,7 @@
         <v>44299</v>
       </c>
       <c r="B325" t="n">
-        <v>356.3096313476562</v>
+        <v>356.3096008300781</v>
       </c>
       <c r="C325" t="n">
         <v>374.5</v>
@@ -7931,7 +7931,7 @@
         <v>44300</v>
       </c>
       <c r="B326" t="n">
-        <v>357.3847045898438</v>
+        <v>357.3847351074219</v>
       </c>
       <c r="C326" t="n">
         <v>375.6300048828125</v>
@@ -7954,7 +7954,7 @@
         <v>44301</v>
       </c>
       <c r="B327" t="n">
-        <v>371.0662231445312</v>
+        <v>371.0662536621094</v>
       </c>
       <c r="C327" t="n">
         <v>390.010009765625</v>
@@ -7977,7 +7977,7 @@
         <v>44302</v>
       </c>
       <c r="B328" t="n">
-        <v>372.0176696777344</v>
+        <v>372.0177307128906</v>
       </c>
       <c r="C328" t="n">
         <v>391.010009765625</v>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="B329" t="n">
-        <v>370.9044494628906</v>
+        <v>370.9044799804688</v>
       </c>
       <c r="C329" t="n">
         <v>389.8399963378906</v>
@@ -8023,7 +8023,7 @@
         <v>44306</v>
       </c>
       <c r="B330" t="n">
-        <v>377.2695617675781</v>
+        <v>377.2695922851562</v>
       </c>
       <c r="C330" t="n">
         <v>396.5299987792969</v>
@@ -8046,7 +8046,7 @@
         <v>44307</v>
       </c>
       <c r="B331" t="n">
-        <v>379.4387817382812</v>
+        <v>379.4388427734375</v>
       </c>
       <c r="C331" t="n">
         <v>398.8099975585938</v>
@@ -8069,7 +8069,7 @@
         <v>44308</v>
       </c>
       <c r="B332" t="n">
-        <v>377.2791137695312</v>
+        <v>377.279052734375</v>
       </c>
       <c r="C332" t="n">
         <v>396.5400085449219</v>
@@ -8092,7 +8092,7 @@
         <v>44309</v>
       </c>
       <c r="B333" t="n">
-        <v>380.865966796875</v>
+        <v>380.8658752441406</v>
       </c>
       <c r="C333" t="n">
         <v>400.3099975585938</v>
@@ -8115,7 +8115,7 @@
         <v>44312</v>
       </c>
       <c r="B334" t="n">
-        <v>376.6320495605469</v>
+        <v>376.632080078125</v>
       </c>
       <c r="C334" t="n">
         <v>395.8599853515625</v>
@@ -8138,7 +8138,7 @@
         <v>44313</v>
       </c>
       <c r="B335" t="n">
-        <v>375.338134765625</v>
+        <v>375.3381652832031</v>
       </c>
       <c r="C335" t="n">
         <v>394.5</v>
@@ -8161,7 +8161,7 @@
         <v>44314</v>
       </c>
       <c r="B336" t="n">
-        <v>375.4237670898438</v>
+        <v>375.423828125</v>
       </c>
       <c r="C336" t="n">
         <v>394.5899963378906</v>
@@ -8207,7 +8207,7 @@
         <v>44316</v>
       </c>
       <c r="B338" t="n">
-        <v>379.4292297363281</v>
+        <v>379.4292602539062</v>
       </c>
       <c r="C338" t="n">
         <v>398.7999877929688</v>
@@ -8230,7 +8230,7 @@
         <v>44319</v>
       </c>
       <c r="B339" t="n">
-        <v>386.1843566894531</v>
+        <v>386.1844177246094</v>
       </c>
       <c r="C339" t="n">
         <v>405.8999938964844</v>
@@ -8299,7 +8299,7 @@
         <v>44322</v>
       </c>
       <c r="B342" t="n">
-        <v>394.8139038085938</v>
+        <v>394.8138427734375</v>
       </c>
       <c r="C342" t="n">
         <v>414.9700012207031</v>
@@ -8322,7 +8322,7 @@
         <v>44323</v>
       </c>
       <c r="B343" t="n">
-        <v>397.3636474609375</v>
+        <v>397.3636779785156</v>
       </c>
       <c r="C343" t="n">
         <v>417.6499938964844</v>
@@ -8345,7 +8345,7 @@
         <v>44326</v>
       </c>
       <c r="B344" t="n">
-        <v>400.4463500976562</v>
+        <v>400.4463195800781</v>
       </c>
       <c r="C344" t="n">
         <v>420.8900146484375</v>
@@ -8368,7 +8368,7 @@
         <v>44327</v>
       </c>
       <c r="B345" t="n">
-        <v>391.7026977539062</v>
+        <v>391.7027282714844</v>
       </c>
       <c r="C345" t="n">
         <v>411.7000122070312</v>
@@ -8391,7 +8391,7 @@
         <v>44328</v>
       </c>
       <c r="B346" t="n">
-        <v>385.6802062988281</v>
+        <v>385.6801147460938</v>
       </c>
       <c r="C346" t="n">
         <v>405.3699951171875</v>
@@ -8414,7 +8414,7 @@
         <v>44329</v>
       </c>
       <c r="B347" t="n">
-        <v>388.7151794433594</v>
+        <v>388.7152099609375</v>
       </c>
       <c r="C347" t="n">
         <v>408.5599975585938</v>
@@ -8437,7 +8437,7 @@
         <v>44330</v>
       </c>
       <c r="B348" t="n">
-        <v>389.8949890136719</v>
+        <v>389.89501953125</v>
       </c>
       <c r="C348" t="n">
         <v>409.7999877929688</v>
@@ -8460,7 +8460,7 @@
         <v>44333</v>
       </c>
       <c r="B349" t="n">
-        <v>388.7817993164062</v>
+        <v>388.7818603515625</v>
       </c>
       <c r="C349" t="n">
         <v>408.6300048828125</v>
@@ -8483,7 +8483,7 @@
         <v>44334</v>
       </c>
       <c r="B350" t="n">
-        <v>390.4468383789062</v>
+        <v>390.4468688964844</v>
       </c>
       <c r="C350" t="n">
         <v>410.3800048828125</v>
@@ -8506,7 +8506,7 @@
         <v>44335</v>
       </c>
       <c r="B351" t="n">
-        <v>389.6095275878906</v>
+        <v>389.6095581054688</v>
       </c>
       <c r="C351" t="n">
         <v>409.5</v>
@@ -8529,7 +8529,7 @@
         <v>44336</v>
       </c>
       <c r="B352" t="n">
-        <v>388.7913818359375</v>
+        <v>388.7913208007812</v>
       </c>
       <c r="C352" t="n">
         <v>408.6400146484375</v>
@@ -8575,7 +8575,7 @@
         <v>44340</v>
       </c>
       <c r="B354" t="n">
-        <v>390.9891967773438</v>
+        <v>390.9891357421875</v>
       </c>
       <c r="C354" t="n">
         <v>410.9500122070312</v>
@@ -8598,7 +8598,7 @@
         <v>44341</v>
       </c>
       <c r="B355" t="n">
-        <v>392.9872131347656</v>
+        <v>392.987060546875</v>
       </c>
       <c r="C355" t="n">
         <v>413.0499877929688</v>
@@ -8621,7 +8621,7 @@
         <v>44342</v>
       </c>
       <c r="B356" t="n">
-        <v>393.1393432617188</v>
+        <v>393.1393737792969</v>
       </c>
       <c r="C356" t="n">
         <v>413.2099914550781</v>
@@ -8644,7 +8644,7 @@
         <v>44343</v>
       </c>
       <c r="B357" t="n">
-        <v>392.6540832519531</v>
+        <v>392.6541442871094</v>
       </c>
       <c r="C357" t="n">
         <v>412.7000122070312</v>
@@ -8667,7 +8667,7 @@
         <v>44344</v>
       </c>
       <c r="B358" t="n">
-        <v>391.9119873046875</v>
+        <v>391.9120483398438</v>
       </c>
       <c r="C358" t="n">
         <v>411.9200134277344</v>
@@ -8759,7 +8759,7 @@
         <v>44351</v>
       </c>
       <c r="B362" t="n">
-        <v>385.93701171875</v>
+        <v>385.9370727539062</v>
       </c>
       <c r="C362" t="n">
         <v>405.6400146484375</v>
@@ -8782,7 +8782,7 @@
         <v>44354</v>
       </c>
       <c r="B363" t="n">
-        <v>380.8088684082031</v>
+        <v>380.808837890625</v>
       </c>
       <c r="C363" t="n">
         <v>400.25</v>
@@ -8805,7 +8805,7 @@
         <v>44355</v>
       </c>
       <c r="B364" t="n">
-        <v>382.2264709472656</v>
+        <v>382.2264404296875</v>
       </c>
       <c r="C364" t="n">
         <v>401.739990234375</v>
@@ -8874,7 +8874,7 @@
         <v>44358</v>
       </c>
       <c r="B367" t="n">
-        <v>378.5635070800781</v>
+        <v>378.5634765625</v>
       </c>
       <c r="C367" t="n">
         <v>397.8900146484375</v>
@@ -8897,7 +8897,7 @@
         <v>44361</v>
       </c>
       <c r="B368" t="n">
-        <v>379.7717895507812</v>
+        <v>379.7718505859375</v>
       </c>
       <c r="C368" t="n">
         <v>399.1600036621094</v>
@@ -8920,7 +8920,7 @@
         <v>44362</v>
       </c>
       <c r="B369" t="n">
-        <v>380.8373718261719</v>
+        <v>380.8373413085938</v>
       </c>
       <c r="C369" t="n">
         <v>400.2799987792969</v>
@@ -8943,7 +8943,7 @@
         <v>44363</v>
       </c>
       <c r="B370" t="n">
-        <v>377.9545593261719</v>
+        <v>377.95458984375</v>
       </c>
       <c r="C370" t="n">
         <v>397.25</v>
@@ -8966,7 +8966,7 @@
         <v>44364</v>
       </c>
       <c r="B371" t="n">
-        <v>378.0496520996094</v>
+        <v>378.0497131347656</v>
       </c>
       <c r="C371" t="n">
         <v>397.3500061035156</v>
@@ -8989,7 +8989,7 @@
         <v>44365</v>
       </c>
       <c r="B372" t="n">
-        <v>371.8140869140625</v>
+        <v>371.8141174316406</v>
       </c>
       <c r="C372" t="n">
         <v>389.3699951171875</v>
@@ -9012,7 +9012,7 @@
         <v>44368</v>
       </c>
       <c r="B373" t="n">
-        <v>380.1219177246094</v>
+        <v>380.1218566894531</v>
       </c>
       <c r="C373" t="n">
         <v>398.0700073242188</v>
@@ -9058,7 +9058,7 @@
         <v>44370</v>
       </c>
       <c r="B375" t="n">
-        <v>377.7250366210938</v>
+        <v>377.7250671386719</v>
       </c>
       <c r="C375" t="n">
         <v>395.5599975585938</v>
@@ -9104,7 +9104,7 @@
         <v>44372</v>
       </c>
       <c r="B377" t="n">
-        <v>386.691650390625</v>
+        <v>386.6916809082031</v>
       </c>
       <c r="C377" t="n">
         <v>404.9500122070312</v>
@@ -9150,7 +9150,7 @@
         <v>44376</v>
       </c>
       <c r="B379" t="n">
-        <v>380.1505126953125</v>
+        <v>380.1505737304688</v>
       </c>
       <c r="C379" t="n">
         <v>398.1000061035156</v>
@@ -9173,7 +9173,7 @@
         <v>44377</v>
       </c>
       <c r="B380" t="n">
-        <v>382.3850402832031</v>
+        <v>382.385009765625</v>
       </c>
       <c r="C380" t="n">
         <v>400.4400024414062</v>
@@ -9196,7 +9196,7 @@
         <v>44378</v>
       </c>
       <c r="B381" t="n">
-        <v>386.6344299316406</v>
+        <v>386.6343994140625</v>
       </c>
       <c r="C381" t="n">
         <v>404.8900146484375</v>
@@ -9219,7 +9219,7 @@
         <v>44379</v>
       </c>
       <c r="B382" t="n">
-        <v>390.90283203125</v>
+        <v>390.9028930664062</v>
       </c>
       <c r="C382" t="n">
         <v>409.3599853515625</v>
@@ -9242,7 +9242,7 @@
         <v>44383</v>
       </c>
       <c r="B383" t="n">
-        <v>391.76220703125</v>
+        <v>391.7622985839844</v>
       </c>
       <c r="C383" t="n">
         <v>410.260009765625</v>
@@ -9265,7 +9265,7 @@
         <v>44384</v>
       </c>
       <c r="B384" t="n">
-        <v>393.0991516113281</v>
+        <v>393.09912109375</v>
       </c>
       <c r="C384" t="n">
         <v>411.6600036621094</v>
@@ -9288,7 +9288,7 @@
         <v>44385</v>
       </c>
       <c r="B385" t="n">
-        <v>391.4661865234375</v>
+        <v>391.4662170410156</v>
       </c>
       <c r="C385" t="n">
         <v>409.9500122070312</v>
@@ -9311,7 +9311,7 @@
         <v>44386</v>
       </c>
       <c r="B386" t="n">
-        <v>393.5288391113281</v>
+        <v>393.52880859375</v>
       </c>
       <c r="C386" t="n">
         <v>412.1099853515625</v>
@@ -9334,7 +9334,7 @@
         <v>44389</v>
       </c>
       <c r="B387" t="n">
-        <v>397.2817077636719</v>
+        <v>397.2816162109375</v>
       </c>
       <c r="C387" t="n">
         <v>416.0400085449219</v>
@@ -9357,7 +9357,7 @@
         <v>44390</v>
       </c>
       <c r="B388" t="n">
-        <v>399.6689147949219</v>
+        <v>399.6689758300781</v>
       </c>
       <c r="C388" t="n">
         <v>418.5400085449219</v>
@@ -9380,7 +9380,7 @@
         <v>44391</v>
       </c>
       <c r="B389" t="n">
-        <v>396.0402221679688</v>
+        <v>396.0403137207031</v>
       </c>
       <c r="C389" t="n">
         <v>414.739990234375</v>
@@ -9403,7 +9403,7 @@
         <v>44392</v>
       </c>
       <c r="B390" t="n">
-        <v>401.11083984375</v>
+        <v>401.1108093261719</v>
       </c>
       <c r="C390" t="n">
         <v>420.0499877929688</v>
@@ -9426,7 +9426,7 @@
         <v>44393</v>
       </c>
       <c r="B391" t="n">
-        <v>400.776611328125</v>
+        <v>400.7766418457031</v>
       </c>
       <c r="C391" t="n">
         <v>419.7000122070312</v>
@@ -9449,7 +9449,7 @@
         <v>44396</v>
       </c>
       <c r="B392" t="n">
-        <v>390.6163330078125</v>
+        <v>390.6163635253906</v>
       </c>
       <c r="C392" t="n">
         <v>409.0599975585938</v>
@@ -9495,7 +9495,7 @@
         <v>44398</v>
       </c>
       <c r="B394" t="n">
-        <v>395.9447631835938</v>
+        <v>395.9447937011719</v>
       </c>
       <c r="C394" t="n">
         <v>414.6400146484375</v>
@@ -9518,7 +9518,7 @@
         <v>44399</v>
       </c>
       <c r="B395" t="n">
-        <v>397.0238342285156</v>
+        <v>397.0238037109375</v>
       </c>
       <c r="C395" t="n">
         <v>415.7699890136719</v>
@@ -9564,7 +9564,7 @@
         <v>44403</v>
       </c>
       <c r="B397" t="n">
-        <v>394.8943481445312</v>
+        <v>394.8943786621094</v>
       </c>
       <c r="C397" t="n">
         <v>413.5400085449219</v>
@@ -9587,7 +9587,7 @@
         <v>44404</v>
       </c>
       <c r="B398" t="n">
-        <v>396.3840637207031</v>
+        <v>396.3840942382812</v>
       </c>
       <c r="C398" t="n">
         <v>415.1000061035156</v>
@@ -9610,7 +9610,7 @@
         <v>44405</v>
       </c>
       <c r="B399" t="n">
-        <v>390.721435546875</v>
+        <v>390.7214660644531</v>
       </c>
       <c r="C399" t="n">
         <v>409.1700134277344</v>
@@ -9633,7 +9633,7 @@
         <v>44406</v>
       </c>
       <c r="B400" t="n">
-        <v>393.500244140625</v>
+        <v>393.5002136230469</v>
       </c>
       <c r="C400" t="n">
         <v>412.0799865722656</v>
@@ -9656,7 +9656,7 @@
         <v>44407</v>
       </c>
       <c r="B401" t="n">
-        <v>393.6338195800781</v>
+        <v>393.6338806152344</v>
       </c>
       <c r="C401" t="n">
         <v>412.2200012207031</v>
@@ -9679,7 +9679,7 @@
         <v>44410</v>
       </c>
       <c r="B402" t="n">
-        <v>396.8329162597656</v>
+        <v>396.8328247070312</v>
       </c>
       <c r="C402" t="n">
         <v>415.5700073242188</v>
@@ -9702,7 +9702,7 @@
         <v>44411</v>
       </c>
       <c r="B403" t="n">
-        <v>402.8774719238281</v>
+        <v>402.8775024414062</v>
       </c>
       <c r="C403" t="n">
         <v>421.8999938964844</v>
@@ -9725,7 +9725,7 @@
         <v>44412</v>
       </c>
       <c r="B404" t="n">
-        <v>402.53369140625</v>
+        <v>402.5336303710938</v>
       </c>
       <c r="C404" t="n">
         <v>421.5400085449219</v>
@@ -9748,7 +9748,7 @@
         <v>44413</v>
       </c>
       <c r="B405" t="n">
-        <v>392.6502990722656</v>
+        <v>392.6503295898438</v>
       </c>
       <c r="C405" t="n">
         <v>411.1900024414062</v>
@@ -9794,7 +9794,7 @@
         <v>44417</v>
       </c>
       <c r="B407" t="n">
-        <v>392.3447875976562</v>
+        <v>392.3446960449219</v>
       </c>
       <c r="C407" t="n">
         <v>410.8699951171875</v>
@@ -9817,7 +9817,7 @@
         <v>44418</v>
       </c>
       <c r="B408" t="n">
-        <v>393.2137145996094</v>
+        <v>393.2137451171875</v>
       </c>
       <c r="C408" t="n">
         <v>411.7799987792969</v>
@@ -9840,7 +9840,7 @@
         <v>44419</v>
       </c>
       <c r="B409" t="n">
-        <v>389.3558959960938</v>
+        <v>389.3558349609375</v>
       </c>
       <c r="C409" t="n">
         <v>407.739990234375</v>
@@ -9863,7 +9863,7 @@
         <v>44420</v>
       </c>
       <c r="B410" t="n">
-        <v>387.6561584472656</v>
+        <v>387.6561279296875</v>
       </c>
       <c r="C410" t="n">
         <v>405.9599914550781</v>
@@ -9909,7 +9909,7 @@
         <v>44424</v>
       </c>
       <c r="B412" t="n">
-        <v>398.3988647460938</v>
+        <v>398.3988952636719</v>
       </c>
       <c r="C412" t="n">
         <v>417.2099914550781</v>
@@ -9932,7 +9932,7 @@
         <v>44425</v>
       </c>
       <c r="B413" t="n">
-        <v>402.7628173828125</v>
+        <v>402.7627868652344</v>
       </c>
       <c r="C413" t="n">
         <v>421.7799987792969</v>
@@ -9955,7 +9955,7 @@
         <v>44426</v>
       </c>
       <c r="B414" t="n">
-        <v>398.5039672851562</v>
+        <v>398.5039978027344</v>
       </c>
       <c r="C414" t="n">
         <v>417.3200073242188</v>
@@ -10024,7 +10024,7 @@
         <v>44431</v>
       </c>
       <c r="B417" t="n">
-        <v>406.1813354492188</v>
+        <v>406.181396484375</v>
       </c>
       <c r="C417" t="n">
         <v>425.3599853515625</v>
@@ -10070,7 +10070,7 @@
         <v>44433</v>
       </c>
       <c r="B419" t="n">
-        <v>400.8147888183594</v>
+        <v>400.8148498535156</v>
       </c>
       <c r="C419" t="n">
         <v>419.739990234375</v>
@@ -10093,7 +10093,7 @@
         <v>44434</v>
       </c>
       <c r="B420" t="n">
-        <v>398.0550537109375</v>
+        <v>398.0551452636719</v>
       </c>
       <c r="C420" t="n">
         <v>416.8500061035156</v>
@@ -10139,7 +10139,7 @@
         <v>44438</v>
       </c>
       <c r="B422" t="n">
-        <v>399.4397583007812</v>
+        <v>399.4397277832031</v>
       </c>
       <c r="C422" t="n">
         <v>418.2999877929688</v>
@@ -10162,7 +10162,7 @@
         <v>44439</v>
       </c>
       <c r="B423" t="n">
-        <v>397.5012817382812</v>
+        <v>397.5012512207031</v>
       </c>
       <c r="C423" t="n">
         <v>416.2699890136719</v>
@@ -10208,7 +10208,7 @@
         <v>44441</v>
       </c>
       <c r="B425" t="n">
-        <v>404.6057739257812</v>
+        <v>404.6058044433594</v>
       </c>
       <c r="C425" t="n">
         <v>423.7099914550781</v>
@@ -10231,7 +10231,7 @@
         <v>44442</v>
       </c>
       <c r="B426" t="n">
-        <v>403.7941589355469</v>
+        <v>403.7940979003906</v>
       </c>
       <c r="C426" t="n">
         <v>422.8599853515625</v>
@@ -10254,7 +10254,7 @@
         <v>44446</v>
       </c>
       <c r="B427" t="n">
-        <v>402.2471618652344</v>
+        <v>402.2471923828125</v>
       </c>
       <c r="C427" t="n">
         <v>421.239990234375</v>
@@ -10277,7 +10277,7 @@
         <v>44447</v>
       </c>
       <c r="B428" t="n">
-        <v>396.6609802246094</v>
+        <v>396.6609191894531</v>
       </c>
       <c r="C428" t="n">
         <v>415.3900146484375</v>
@@ -10346,7 +10346,7 @@
         <v>44452</v>
       </c>
       <c r="B431" t="n">
-        <v>397.2196044921875</v>
+        <v>397.2195739746094</v>
       </c>
       <c r="C431" t="n">
         <v>414.5199890136719</v>
@@ -10392,7 +10392,7 @@
         <v>44454</v>
       </c>
       <c r="B433" t="n">
-        <v>400.0943908691406</v>
+        <v>400.0943603515625</v>
       </c>
       <c r="C433" t="n">
         <v>417.5199890136719</v>
@@ -10415,7 +10415,7 @@
         <v>44455</v>
       </c>
       <c r="B434" t="n">
-        <v>399.4426879882812</v>
+        <v>399.4427795410156</v>
       </c>
       <c r="C434" t="n">
         <v>416.8399963378906</v>
@@ -10438,7 +10438,7 @@
         <v>44456</v>
       </c>
       <c r="B435" t="n">
-        <v>402.6241455078125</v>
+        <v>402.6242065429688</v>
       </c>
       <c r="C435" t="n">
         <v>420.1600036621094</v>
@@ -10461,7 +10461,7 @@
         <v>44459</v>
       </c>
       <c r="B436" t="n">
-        <v>395.4755554199219</v>
+        <v>395.4755249023438</v>
       </c>
       <c r="C436" t="n">
         <v>412.7000122070312</v>
@@ -10507,7 +10507,7 @@
         <v>44461</v>
       </c>
       <c r="B438" t="n">
-        <v>391.6424560546875</v>
+        <v>391.6424865722656</v>
       </c>
       <c r="C438" t="n">
         <v>408.7000122070312</v>
@@ -10530,7 +10530,7 @@
         <v>44462</v>
       </c>
       <c r="B439" t="n">
-        <v>391.0004577636719</v>
+        <v>391.0004272460938</v>
       </c>
       <c r="C439" t="n">
         <v>408.0299987792969</v>
@@ -10553,7 +10553,7 @@
         <v>44463</v>
       </c>
       <c r="B440" t="n">
-        <v>390.0900573730469</v>
+        <v>390.090087890625</v>
       </c>
       <c r="C440" t="n">
         <v>407.0799865722656</v>
@@ -10599,7 +10599,7 @@
         <v>44467</v>
       </c>
       <c r="B442" t="n">
-        <v>381.9832153320312</v>
+        <v>381.983154296875</v>
       </c>
       <c r="C442" t="n">
         <v>398.6199951171875</v>
@@ -10622,7 +10622,7 @@
         <v>44468</v>
       </c>
       <c r="B443" t="n">
-        <v>383.698486328125</v>
+        <v>383.6985168457031</v>
       </c>
       <c r="C443" t="n">
         <v>400.4100036621094</v>
@@ -10645,7 +10645,7 @@
         <v>44469</v>
       </c>
       <c r="B444" t="n">
-        <v>374.4320678710938</v>
+        <v>374.4320373535156</v>
       </c>
       <c r="C444" t="n">
         <v>390.739990234375</v>
@@ -10714,7 +10714,7 @@
         <v>44474</v>
       </c>
       <c r="B447" t="n">
-        <v>377.0097961425781</v>
+        <v>377.0097351074219</v>
       </c>
       <c r="C447" t="n">
         <v>393.4299926757812</v>
@@ -10760,7 +10760,7 @@
         <v>44476</v>
       </c>
       <c r="B449" t="n">
-        <v>387.8094482421875</v>
+        <v>387.8094177246094</v>
       </c>
       <c r="C449" t="n">
         <v>404.7000122070312</v>
@@ -10783,7 +10783,7 @@
         <v>44477</v>
       </c>
       <c r="B450" t="n">
-        <v>391.4125061035156</v>
+        <v>391.4124755859375</v>
       </c>
       <c r="C450" t="n">
         <v>408.4599914550781</v>
@@ -10806,7 +10806,7 @@
         <v>44480</v>
       </c>
       <c r="B451" t="n">
-        <v>388.0872802734375</v>
+        <v>388.0873107910156</v>
       </c>
       <c r="C451" t="n">
         <v>404.989990234375</v>
@@ -10852,7 +10852,7 @@
         <v>44482</v>
       </c>
       <c r="B453" t="n">
-        <v>386.7074279785156</v>
+        <v>386.7073669433594</v>
       </c>
       <c r="C453" t="n">
         <v>403.5499877929688</v>
@@ -10875,7 +10875,7 @@
         <v>44483</v>
       </c>
       <c r="B454" t="n">
-        <v>402.8157958984375</v>
+        <v>402.8158264160156</v>
       </c>
       <c r="C454" t="n">
         <v>420.3599853515625</v>
@@ -10898,7 +10898,7 @@
         <v>44484</v>
       </c>
       <c r="B455" t="n">
-        <v>410.2040710449219</v>
+        <v>410.2040100097656</v>
       </c>
       <c r="C455" t="n">
         <v>428.0700073242188</v>
@@ -10944,7 +10944,7 @@
         <v>44488</v>
       </c>
       <c r="B457" t="n">
-        <v>406.6679992675781</v>
+        <v>406.6680603027344</v>
       </c>
       <c r="C457" t="n">
         <v>424.3800048828125</v>
@@ -10990,7 +10990,7 @@
         <v>44490</v>
       </c>
       <c r="B459" t="n">
-        <v>423.8209228515625</v>
+        <v>423.8209533691406</v>
       </c>
       <c r="C459" t="n">
         <v>442.2799987792969</v>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="B460" t="n">
-        <v>430.4138488769531</v>
+        <v>430.4138793945312</v>
       </c>
       <c r="C460" t="n">
         <v>449.1600036621094</v>
@@ -11036,7 +11036,7 @@
         <v>44494</v>
       </c>
       <c r="B461" t="n">
-        <v>430.7300415039062</v>
+        <v>430.7300109863281</v>
       </c>
       <c r="C461" t="n">
         <v>449.489990234375</v>
@@ -11059,7 +11059,7 @@
         <v>44495</v>
       </c>
       <c r="B462" t="n">
-        <v>435.6651000976562</v>
+        <v>435.6651611328125</v>
       </c>
       <c r="C462" t="n">
         <v>454.6400146484375</v>
@@ -11082,7 +11082,7 @@
         <v>44496</v>
       </c>
       <c r="B463" t="n">
-        <v>434.553466796875</v>
+        <v>434.5535888671875</v>
       </c>
       <c r="C463" t="n">
         <v>453.4800109863281</v>
@@ -11128,7 +11128,7 @@
         <v>44498</v>
       </c>
       <c r="B465" t="n">
-        <v>441.2517700195312</v>
+        <v>441.2518310546875</v>
       </c>
       <c r="C465" t="n">
         <v>460.4700012207031</v>
@@ -11151,7 +11151,7 @@
         <v>44501</v>
       </c>
       <c r="B466" t="n">
-        <v>435.1572570800781</v>
+        <v>435.1572265625</v>
       </c>
       <c r="C466" t="n">
         <v>454.1099853515625</v>
@@ -11174,7 +11174,7 @@
         <v>44502</v>
       </c>
       <c r="B467" t="n">
-        <v>433.1736755371094</v>
+        <v>433.1736145019531</v>
       </c>
       <c r="C467" t="n">
         <v>452.0400085449219</v>
@@ -11197,7 +11197,7 @@
         <v>44503</v>
       </c>
       <c r="B468" t="n">
-        <v>438.2428283691406</v>
+        <v>438.2428588867188</v>
       </c>
       <c r="C468" t="n">
         <v>457.3299865722656</v>
@@ -11289,7 +11289,7 @@
         <v>44509</v>
       </c>
       <c r="B472" t="n">
-        <v>444.9699096679688</v>
+        <v>444.9698791503906</v>
       </c>
       <c r="C472" t="n">
         <v>464.3500061035156</v>
@@ -11312,7 +11312,7 @@
         <v>44510</v>
       </c>
       <c r="B473" t="n">
-        <v>440.70556640625</v>
+        <v>440.7056274414062</v>
       </c>
       <c r="C473" t="n">
         <v>459.8999938964844</v>
@@ -11335,7 +11335,7 @@
         <v>44511</v>
       </c>
       <c r="B474" t="n">
-        <v>438.3004150390625</v>
+        <v>438.30029296875</v>
       </c>
       <c r="C474" t="n">
         <v>457.3900146484375</v>
@@ -11358,7 +11358,7 @@
         <v>44512</v>
       </c>
       <c r="B475" t="n">
-        <v>439.8336181640625</v>
+        <v>439.8335571289062</v>
       </c>
       <c r="C475" t="n">
         <v>458.989990234375</v>
@@ -11381,7 +11381,7 @@
         <v>44515</v>
       </c>
       <c r="B476" t="n">
-        <v>431.9853210449219</v>
+        <v>431.9854125976562</v>
       </c>
       <c r="C476" t="n">
         <v>450.7999877929688</v>
@@ -11404,7 +11404,7 @@
         <v>44516</v>
       </c>
       <c r="B477" t="n">
-        <v>430.8546447753906</v>
+        <v>430.8545837402344</v>
       </c>
       <c r="C477" t="n">
         <v>449.6199951171875</v>
@@ -11427,7 +11427,7 @@
         <v>44517</v>
       </c>
       <c r="B478" t="n">
-        <v>430.212646484375</v>
+        <v>430.2126159667969</v>
       </c>
       <c r="C478" t="n">
         <v>448.9500122070312</v>
@@ -11450,7 +11450,7 @@
         <v>44518</v>
       </c>
       <c r="B479" t="n">
-        <v>430.7108764648438</v>
+        <v>430.7109069824219</v>
       </c>
       <c r="C479" t="n">
         <v>449.4700012207031</v>
@@ -11473,7 +11473,7 @@
         <v>44519</v>
       </c>
       <c r="B480" t="n">
-        <v>421.6361389160156</v>
+        <v>421.6361083984375</v>
       </c>
       <c r="C480" t="n">
         <v>440</v>
@@ -11519,7 +11519,7 @@
         <v>44523</v>
       </c>
       <c r="B482" t="n">
-        <v>428.4685974121094</v>
+        <v>428.4685668945312</v>
       </c>
       <c r="C482" t="n">
         <v>447.1300048828125</v>
@@ -11542,7 +11542,7 @@
         <v>44524</v>
       </c>
       <c r="B483" t="n">
-        <v>431.3720703125</v>
+        <v>431.3721008300781</v>
       </c>
       <c r="C483" t="n">
         <v>450.1600036621094</v>
@@ -11588,7 +11588,7 @@
         <v>44529</v>
       </c>
       <c r="B485" t="n">
-        <v>433.1353149414062</v>
+        <v>433.1352844238281</v>
       </c>
       <c r="C485" t="n">
         <v>452</v>
@@ -11611,7 +11611,7 @@
         <v>44530</v>
       </c>
       <c r="B486" t="n">
-        <v>425.6800537109375</v>
+        <v>425.6799926757812</v>
       </c>
       <c r="C486" t="n">
         <v>444.2200012207031</v>
@@ -11634,7 +11634,7 @@
         <v>44531</v>
       </c>
       <c r="B487" t="n">
-        <v>425.7950134277344</v>
+        <v>425.7949829101562</v>
       </c>
       <c r="C487" t="n">
         <v>444.3399963378906</v>
@@ -11657,7 +11657,7 @@
         <v>44532</v>
       </c>
       <c r="B488" t="n">
-        <v>427.4048767089844</v>
+        <v>427.4048461914062</v>
       </c>
       <c r="C488" t="n">
         <v>446.0199890136719</v>
@@ -11680,7 +11680,7 @@
         <v>44533</v>
       </c>
       <c r="B489" t="n">
-        <v>431.9714965820312</v>
+        <v>431.9714660644531</v>
       </c>
       <c r="C489" t="n">
         <v>449.3200073242188</v>
@@ -11726,7 +11726,7 @@
         <v>44537</v>
       </c>
       <c r="B491" t="n">
-        <v>446.7864990234375</v>
+        <v>446.7865295410156</v>
       </c>
       <c r="C491" t="n">
         <v>464.7300109863281</v>
@@ -11749,7 +11749,7 @@
         <v>44538</v>
       </c>
       <c r="B492" t="n">
-        <v>450.7570190429688</v>
+        <v>450.7570495605469</v>
       </c>
       <c r="C492" t="n">
         <v>468.8599853515625</v>
@@ -11795,7 +11795,7 @@
         <v>44540</v>
       </c>
       <c r="B494" t="n">
-        <v>459.7652587890625</v>
+        <v>459.7652282714844</v>
       </c>
       <c r="C494" t="n">
         <v>478.2300109863281</v>
@@ -11818,7 +11818,7 @@
         <v>44543</v>
       </c>
       <c r="B495" t="n">
-        <v>459.6787109375</v>
+        <v>459.6787719726562</v>
       </c>
       <c r="C495" t="n">
         <v>478.1400146484375</v>
@@ -11841,7 +11841,7 @@
         <v>44544</v>
       </c>
       <c r="B496" t="n">
-        <v>460.9477233886719</v>
+        <v>460.94775390625</v>
       </c>
       <c r="C496" t="n">
         <v>479.4599914550781</v>
@@ -11887,7 +11887,7 @@
         <v>44546</v>
       </c>
       <c r="B498" t="n">
-        <v>473.830322265625</v>
+        <v>473.8303527832031</v>
       </c>
       <c r="C498" t="n">
         <v>492.8599853515625</v>
@@ -11910,7 +11910,7 @@
         <v>44547</v>
       </c>
       <c r="B499" t="n">
-        <v>468.3119812011719</v>
+        <v>468.3119506835938</v>
       </c>
       <c r="C499" t="n">
         <v>487.1199951171875</v>
@@ -11933,7 +11933,7 @@
         <v>44550</v>
       </c>
       <c r="B500" t="n">
-        <v>465.0528869628906</v>
+        <v>465.0528564453125</v>
       </c>
       <c r="C500" t="n">
         <v>483.7300109863281</v>
@@ -11956,7 +11956,7 @@
         <v>44551</v>
       </c>
       <c r="B501" t="n">
-        <v>468.3984985351562</v>
+        <v>468.3985290527344</v>
       </c>
       <c r="C501" t="n">
         <v>487.2099914550781</v>
@@ -11979,7 +11979,7 @@
         <v>44552</v>
       </c>
       <c r="B502" t="n">
-        <v>475.0514221191406</v>
+        <v>475.0513000488281</v>
       </c>
       <c r="C502" t="n">
         <v>494.1300048828125</v>
@@ -12002,7 +12002,7 @@
         <v>44553</v>
       </c>
       <c r="B503" t="n">
-        <v>476.2530822753906</v>
+        <v>476.2530517578125</v>
       </c>
       <c r="C503" t="n">
         <v>495.3800048828125</v>
@@ -12025,7 +12025,7 @@
         <v>44557</v>
       </c>
       <c r="B504" t="n">
-        <v>480.2140197753906</v>
+        <v>480.2139587402344</v>
       </c>
       <c r="C504" t="n">
         <v>499.5</v>
@@ -12048,7 +12048,7 @@
         <v>44558</v>
       </c>
       <c r="B505" t="n">
-        <v>483.5211486816406</v>
+        <v>483.5212097167969</v>
       </c>
       <c r="C505" t="n">
         <v>502.9400024414062</v>
@@ -12117,7 +12117,7 @@
         <v>44561</v>
       </c>
       <c r="B508" t="n">
-        <v>482.7520141601562</v>
+        <v>482.7520751953125</v>
       </c>
       <c r="C508" t="n">
         <v>502.1400146484375</v>
@@ -12140,7 +12140,7 @@
         <v>44564</v>
       </c>
       <c r="B509" t="n">
-        <v>482.8866271972656</v>
+        <v>482.8866577148438</v>
       </c>
       <c r="C509" t="n">
         <v>502.2799987792969</v>
@@ -12163,7 +12163,7 @@
         <v>44565</v>
       </c>
       <c r="B510" t="n">
-        <v>471.946044921875</v>
+        <v>471.9461059570312</v>
       </c>
       <c r="C510" t="n">
         <v>490.8999938964844</v>
@@ -12186,7 +12186,7 @@
         <v>44566</v>
       </c>
       <c r="B511" t="n">
-        <v>470.78271484375</v>
+        <v>470.7828063964844</v>
       </c>
       <c r="C511" t="n">
         <v>489.6900024414062</v>
@@ -12209,7 +12209,7 @@
         <v>44567</v>
       </c>
       <c r="B512" t="n">
-        <v>451.5164794921875</v>
+        <v>451.5165100097656</v>
       </c>
       <c r="C512" t="n">
         <v>469.6499938964844</v>
@@ -12232,7 +12232,7 @@
         <v>44568</v>
       </c>
       <c r="B513" t="n">
-        <v>440.8931579589844</v>
+        <v>440.8931884765625</v>
       </c>
       <c r="C513" t="n">
         <v>458.6000061035156</v>
@@ -12301,7 +12301,7 @@
         <v>44573</v>
       </c>
       <c r="B516" t="n">
-        <v>455.429443359375</v>
+        <v>455.4293823242188</v>
       </c>
       <c r="C516" t="n">
         <v>473.7200012207031</v>
@@ -12324,7 +12324,7 @@
         <v>44574</v>
       </c>
       <c r="B517" t="n">
-        <v>449.3822326660156</v>
+        <v>449.3822021484375</v>
       </c>
       <c r="C517" t="n">
         <v>467.4299926757812</v>
@@ -12347,7 +12347,7 @@
         <v>44575</v>
       </c>
       <c r="B518" t="n">
-        <v>450.5935974121094</v>
+        <v>450.5936279296875</v>
       </c>
       <c r="C518" t="n">
         <v>468.6900024414062</v>
@@ -12393,7 +12393,7 @@
         <v>44580</v>
       </c>
       <c r="B520" t="n">
-        <v>444.6618347167969</v>
+        <v>444.6617431640625</v>
       </c>
       <c r="C520" t="n">
         <v>462.5199890136719</v>
@@ -12416,7 +12416,7 @@
         <v>44581</v>
       </c>
       <c r="B521" t="n">
-        <v>445.1232604980469</v>
+        <v>445.1231994628906</v>
       </c>
       <c r="C521" t="n">
         <v>463</v>
@@ -12485,7 +12485,7 @@
         <v>44586</v>
       </c>
       <c r="B524" t="n">
-        <v>439.2011108398438</v>
+        <v>439.201171875</v>
       </c>
       <c r="C524" t="n">
         <v>456.8399963378906</v>
@@ -12508,7 +12508,7 @@
         <v>44587</v>
       </c>
       <c r="B525" t="n">
-        <v>440.7297668457031</v>
+        <v>440.7297058105469</v>
       </c>
       <c r="C525" t="n">
         <v>458.4299926757812</v>
@@ -12531,7 +12531,7 @@
         <v>44588</v>
       </c>
       <c r="B526" t="n">
-        <v>443.77734375</v>
+        <v>443.7773132324219</v>
       </c>
       <c r="C526" t="n">
         <v>461.6000061035156</v>
@@ -12554,7 +12554,7 @@
         <v>44589</v>
       </c>
       <c r="B527" t="n">
-        <v>448.0651550292969</v>
+        <v>448.0651245117188</v>
       </c>
       <c r="C527" t="n">
         <v>466.0599975585938</v>
@@ -12623,7 +12623,7 @@
         <v>44594</v>
       </c>
       <c r="B530" t="n">
-        <v>461.25537109375</v>
+        <v>461.2554016113281</v>
       </c>
       <c r="C530" t="n">
         <v>479.7799987792969</v>
@@ -12646,7 +12646,7 @@
         <v>44595</v>
       </c>
       <c r="B531" t="n">
-        <v>469.8982849121094</v>
+        <v>469.8983154296875</v>
       </c>
       <c r="C531" t="n">
         <v>488.7699890136719</v>
@@ -12669,7 +12669,7 @@
         <v>44596</v>
       </c>
       <c r="B532" t="n">
-        <v>464.5145263671875</v>
+        <v>464.5144958496094</v>
       </c>
       <c r="C532" t="n">
         <v>483.1700134277344</v>
@@ -12692,7 +12692,7 @@
         <v>44599</v>
       </c>
       <c r="B533" t="n">
-        <v>465.0240173339844</v>
+        <v>465.0240783691406</v>
       </c>
       <c r="C533" t="n">
         <v>483.7000122070312</v>
@@ -12715,7 +12715,7 @@
         <v>44600</v>
       </c>
       <c r="B534" t="n">
-        <v>474.3591613769531</v>
+        <v>474.359130859375</v>
       </c>
       <c r="C534" t="n">
         <v>493.4100036621094</v>
@@ -12761,7 +12761,7 @@
         <v>44602</v>
       </c>
       <c r="B536" t="n">
-        <v>467.9274597167969</v>
+        <v>467.9273986816406</v>
       </c>
       <c r="C536" t="n">
         <v>486.7200012207031</v>
@@ -12784,7 +12784,7 @@
         <v>44603</v>
       </c>
       <c r="B537" t="n">
-        <v>459.6690673828125</v>
+        <v>459.6690979003906</v>
       </c>
       <c r="C537" t="n">
         <v>478.1300048828125</v>
@@ -12807,7 +12807,7 @@
         <v>44606</v>
       </c>
       <c r="B538" t="n">
-        <v>456.0830993652344</v>
+        <v>456.0831604003906</v>
       </c>
       <c r="C538" t="n">
         <v>474.3999938964844</v>
@@ -12830,7 +12830,7 @@
         <v>44607</v>
       </c>
       <c r="B539" t="n">
-        <v>459.7652587890625</v>
+        <v>459.7652282714844</v>
       </c>
       <c r="C539" t="n">
         <v>478.2300109863281</v>
@@ -12853,7 +12853,7 @@
         <v>44608</v>
       </c>
       <c r="B540" t="n">
-        <v>461.5149536132812</v>
+        <v>461.5149841308594</v>
       </c>
       <c r="C540" t="n">
         <v>480.0499877929688</v>
@@ -12899,7 +12899,7 @@
         <v>44610</v>
       </c>
       <c r="B542" t="n">
-        <v>449.74755859375</v>
+        <v>449.7474975585938</v>
       </c>
       <c r="C542" t="n">
         <v>467.8099975585938</v>
@@ -12922,7 +12922,7 @@
         <v>44614</v>
       </c>
       <c r="B543" t="n">
-        <v>444.6521911621094</v>
+        <v>444.6522521972656</v>
       </c>
       <c r="C543" t="n">
         <v>462.510009765625</v>
@@ -12968,7 +12968,7 @@
         <v>44616</v>
       </c>
       <c r="B545" t="n">
-        <v>438.2877807617188</v>
+        <v>438.287841796875</v>
       </c>
       <c r="C545" t="n">
         <v>455.8900146484375</v>
@@ -12991,7 +12991,7 @@
         <v>44617</v>
       </c>
       <c r="B546" t="n">
-        <v>457.3809814453125</v>
+        <v>457.3810119628906</v>
       </c>
       <c r="C546" t="n">
         <v>475.75</v>
@@ -13014,7 +13014,7 @@
         <v>44620</v>
       </c>
       <c r="B547" t="n">
-        <v>457.4963684082031</v>
+        <v>457.496337890625</v>
       </c>
       <c r="C547" t="n">
         <v>475.8699951171875</v>
@@ -13037,7 +13037,7 @@
         <v>44621</v>
       </c>
       <c r="B548" t="n">
-        <v>457.8616943359375</v>
+        <v>457.8617248535156</v>
       </c>
       <c r="C548" t="n">
         <v>476.25</v>
@@ -13083,7 +13083,7 @@
         <v>44623</v>
       </c>
       <c r="B550" t="n">
-        <v>467.8024597167969</v>
+        <v>467.8024291992188</v>
       </c>
       <c r="C550" t="n">
         <v>486.5899963378906</v>
@@ -13106,7 +13106,7 @@
         <v>44624</v>
       </c>
       <c r="B551" t="n">
-        <v>479.3967895507812</v>
+        <v>479.3968200683594</v>
       </c>
       <c r="C551" t="n">
         <v>498.6499938964844</v>
@@ -13152,7 +13152,7 @@
         <v>44628</v>
       </c>
       <c r="B553" t="n">
-        <v>455.1794128417969</v>
+        <v>455.1793823242188</v>
       </c>
       <c r="C553" t="n">
         <v>473.4599914550781</v>
@@ -13175,7 +13175,7 @@
         <v>44629</v>
       </c>
       <c r="B554" t="n">
-        <v>466.8218688964844</v>
+        <v>466.8218383789062</v>
       </c>
       <c r="C554" t="n">
         <v>485.5700073242188</v>
@@ -13244,7 +13244,7 @@
         <v>44634</v>
       </c>
       <c r="B557" t="n">
-        <v>470.4692687988281</v>
+        <v>470.4692077636719</v>
       </c>
       <c r="C557" t="n">
         <v>487.9200134277344</v>
@@ -13267,7 +13267,7 @@
         <v>44635</v>
       </c>
       <c r="B558" t="n">
-        <v>480.1019592285156</v>
+        <v>480.1018981933594</v>
       </c>
       <c r="C558" t="n">
         <v>497.9100036621094</v>
@@ -13313,7 +13313,7 @@
         <v>44637</v>
       </c>
       <c r="B560" t="n">
-        <v>488.8860778808594</v>
+        <v>488.8861083984375</v>
       </c>
       <c r="C560" t="n">
         <v>507.0199890136719</v>
@@ -13336,7 +13336,7 @@
         <v>44638</v>
       </c>
       <c r="B561" t="n">
-        <v>488.0182800292969</v>
+        <v>488.0182495117188</v>
       </c>
       <c r="C561" t="n">
         <v>506.1199951171875</v>
@@ -13382,7 +13382,7 @@
         <v>44642</v>
       </c>
       <c r="B563" t="n">
-        <v>487.2468872070312</v>
+        <v>487.2469482421875</v>
       </c>
       <c r="C563" t="n">
         <v>505.3200073242188</v>
@@ -13405,7 +13405,7 @@
         <v>44643</v>
       </c>
       <c r="B564" t="n">
-        <v>485.2316284179688</v>
+        <v>485.2316589355469</v>
       </c>
       <c r="C564" t="n">
         <v>503.2300109863281</v>
@@ -13428,7 +13428,7 @@
         <v>44644</v>
       </c>
       <c r="B565" t="n">
-        <v>495.0957336425781</v>
+        <v>495.0957641601562</v>
       </c>
       <c r="C565" t="n">
         <v>513.4600219726562</v>
@@ -13451,7 +13451,7 @@
         <v>44645</v>
       </c>
       <c r="B566" t="n">
-        <v>494.68115234375</v>
+        <v>494.6811828613281</v>
       </c>
       <c r="C566" t="n">
         <v>513.030029296875</v>
@@ -13474,7 +13474,7 @@
         <v>44648</v>
       </c>
       <c r="B567" t="n">
-        <v>494.8450622558594</v>
+        <v>494.8450927734375</v>
       </c>
       <c r="C567" t="n">
         <v>513.2000122070312</v>
@@ -13497,7 +13497,7 @@
         <v>44649</v>
       </c>
       <c r="B568" t="n">
-        <v>492.4633483886719</v>
+        <v>492.4634094238281</v>
       </c>
       <c r="C568" t="n">
         <v>510.7300109863281</v>
@@ -13520,7 +13520,7 @@
         <v>44650</v>
       </c>
       <c r="B569" t="n">
-        <v>502.1925964355469</v>
+        <v>502.1925048828125</v>
       </c>
       <c r="C569" t="n">
         <v>520.8200073242188</v>
@@ -13566,7 +13566,7 @@
         <v>44652</v>
       </c>
       <c r="B571" t="n">
-        <v>494.2569580078125</v>
+        <v>494.2568359375</v>
       </c>
       <c r="C571" t="n">
         <v>512.5900268554688</v>
@@ -13612,7 +13612,7 @@
         <v>44656</v>
       </c>
       <c r="B573" t="n">
-        <v>499.241943359375</v>
+        <v>499.2420043945312</v>
       </c>
       <c r="C573" t="n">
         <v>517.760009765625</v>
@@ -13635,7 +13635,7 @@
         <v>44657</v>
       </c>
       <c r="B574" t="n">
-        <v>512.7315063476562</v>
+        <v>512.7316284179688</v>
       </c>
       <c r="C574" t="n">
         <v>531.75</v>
@@ -13658,7 +13658,7 @@
         <v>44658</v>
       </c>
       <c r="B575" t="n">
-        <v>517.7455444335938</v>
+        <v>517.74560546875</v>
       </c>
       <c r="C575" t="n">
         <v>536.9500122070312</v>
@@ -13681,7 +13681,7 @@
         <v>44659</v>
       </c>
       <c r="B576" t="n">
-        <v>526.433349609375</v>
+        <v>526.4334106445312</v>
       </c>
       <c r="C576" t="n">
         <v>545.9600219726562</v>
@@ -13704,7 +13704,7 @@
         <v>44662</v>
       </c>
       <c r="B577" t="n">
-        <v>518.2180786132812</v>
+        <v>518.2181396484375</v>
       </c>
       <c r="C577" t="n">
         <v>537.4400024414062</v>
@@ -13727,7 +13727,7 @@
         <v>44663</v>
       </c>
       <c r="B578" t="n">
-        <v>514.6215209960938</v>
+        <v>514.6214599609375</v>
       </c>
       <c r="C578" t="n">
         <v>533.7100219726562</v>
@@ -13750,7 +13750,7 @@
         <v>44664</v>
       </c>
       <c r="B579" t="n">
-        <v>517.7938232421875</v>
+        <v>517.7937622070312</v>
       </c>
       <c r="C579" t="n">
         <v>537</v>
@@ -13773,7 +13773,7 @@
         <v>44665</v>
       </c>
       <c r="B580" t="n">
-        <v>515.69189453125</v>
+        <v>515.6918334960938</v>
       </c>
       <c r="C580" t="n">
         <v>534.8200073242188</v>
@@ -13796,7 +13796,7 @@
         <v>44669</v>
       </c>
       <c r="B581" t="n">
-        <v>514.978271484375</v>
+        <v>514.9783325195312</v>
       </c>
       <c r="C581" t="n">
         <v>534.0800170898438</v>
@@ -13819,7 +13819,7 @@
         <v>44670</v>
       </c>
       <c r="B582" t="n">
-        <v>518.4688110351562</v>
+        <v>518.4689331054688</v>
       </c>
       <c r="C582" t="n">
         <v>537.7000122070312</v>
@@ -13842,7 +13842,7 @@
         <v>44671</v>
       </c>
       <c r="B583" t="n">
-        <v>526.481689453125</v>
+        <v>526.4816284179688</v>
       </c>
       <c r="C583" t="n">
         <v>546.010009765625</v>
@@ -13865,7 +13865,7 @@
         <v>44672</v>
       </c>
       <c r="B584" t="n">
-        <v>518.2180786132812</v>
+        <v>518.2181396484375</v>
       </c>
       <c r="C584" t="n">
         <v>537.4400024414062</v>
@@ -13888,7 +13888,7 @@
         <v>44673</v>
       </c>
       <c r="B585" t="n">
-        <v>502.308349609375</v>
+        <v>502.3082885742188</v>
       </c>
       <c r="C585" t="n">
         <v>520.9400024414062</v>
@@ -13934,7 +13934,7 @@
         <v>44677</v>
       </c>
       <c r="B587" t="n">
-        <v>495.4043884277344</v>
+        <v>495.4043273925781</v>
       </c>
       <c r="C587" t="n">
         <v>513.780029296875</v>
@@ -13957,7 +13957,7 @@
         <v>44678</v>
       </c>
       <c r="B588" t="n">
-        <v>495.4332580566406</v>
+        <v>495.4332275390625</v>
       </c>
       <c r="C588" t="n">
         <v>513.8099975585938</v>
@@ -13980,7 +13980,7 @@
         <v>44679</v>
       </c>
       <c r="B589" t="n">
-        <v>505.6636962890625</v>
+        <v>505.6636657714844</v>
       </c>
       <c r="C589" t="n">
         <v>524.4199829101562</v>
@@ -14003,7 +14003,7 @@
         <v>44680</v>
       </c>
       <c r="B590" t="n">
-        <v>490.361328125</v>
+        <v>490.3613586425781</v>
       </c>
       <c r="C590" t="n">
         <v>508.5499877929688</v>
@@ -14049,7 +14049,7 @@
         <v>44684</v>
       </c>
       <c r="B592" t="n">
-        <v>481.7507934570312</v>
+        <v>481.7507629394531</v>
       </c>
       <c r="C592" t="n">
         <v>499.6199951171875</v>
@@ -14072,7 +14072,7 @@
         <v>44685</v>
       </c>
       <c r="B593" t="n">
-        <v>489.4646301269531</v>
+        <v>489.4646606445312</v>
       </c>
       <c r="C593" t="n">
         <v>507.6199951171875</v>
@@ -14095,7 +14095,7 @@
         <v>44686</v>
       </c>
       <c r="B594" t="n">
-        <v>477.0260009765625</v>
+        <v>477.0260620117188</v>
       </c>
       <c r="C594" t="n">
         <v>494.7200012207031</v>
@@ -14118,7 +14118,7 @@
         <v>44687</v>
       </c>
       <c r="B595" t="n">
-        <v>481.7507934570312</v>
+        <v>481.7507629394531</v>
       </c>
       <c r="C595" t="n">
         <v>499.6199951171875</v>
@@ -14164,7 +14164,7 @@
         <v>44691</v>
       </c>
       <c r="B597" t="n">
-        <v>470.5560607910156</v>
+        <v>470.5559387207031</v>
       </c>
       <c r="C597" t="n">
         <v>488.010009765625</v>
@@ -14210,7 +14210,7 @@
         <v>44693</v>
       </c>
       <c r="B599" t="n">
-        <v>461.6753845214844</v>
+        <v>461.6754150390625</v>
       </c>
       <c r="C599" t="n">
         <v>478.7999877929688</v>
@@ -14256,7 +14256,7 @@
         <v>44697</v>
       </c>
       <c r="B601" t="n">
-        <v>471.7226867675781</v>
+        <v>471.7227478027344</v>
       </c>
       <c r="C601" t="n">
         <v>489.2200012207031</v>
@@ -14325,7 +14325,7 @@
         <v>44700</v>
       </c>
       <c r="B604" t="n">
-        <v>461.4343566894531</v>
+        <v>461.4342651367188</v>
       </c>
       <c r="C604" t="n">
         <v>478.5499877929688</v>
@@ -14348,7 +14348,7 @@
         <v>44701</v>
       </c>
       <c r="B605" t="n">
-        <v>468.3575439453125</v>
+        <v>468.3575134277344</v>
       </c>
       <c r="C605" t="n">
         <v>485.7300109863281</v>
@@ -14371,7 +14371,7 @@
         <v>44704</v>
       </c>
       <c r="B606" t="n">
-        <v>474.4804077148438</v>
+        <v>474.4804382324219</v>
       </c>
       <c r="C606" t="n">
         <v>492.0799865722656</v>
@@ -14394,7 +14394,7 @@
         <v>44705</v>
       </c>
       <c r="B607" t="n">
-        <v>479.7644348144531</v>
+        <v>479.7644653320312</v>
       </c>
       <c r="C607" t="n">
         <v>497.5599975585938</v>
@@ -14463,7 +14463,7 @@
         <v>44708</v>
       </c>
       <c r="B610" t="n">
-        <v>488.972900390625</v>
+        <v>488.9728088378906</v>
       </c>
       <c r="C610" t="n">
         <v>507.1099853515625</v>
@@ -14486,7 +14486,7 @@
         <v>44712</v>
       </c>
       <c r="B611" t="n">
-        <v>479.0123596191406</v>
+        <v>479.0122985839844</v>
       </c>
       <c r="C611" t="n">
         <v>496.7799987792969</v>
@@ -14532,7 +14532,7 @@
         <v>44714</v>
       </c>
       <c r="B613" t="n">
-        <v>474.6539916992188</v>
+        <v>474.6540222167969</v>
       </c>
       <c r="C613" t="n">
         <v>492.260009765625</v>
@@ -14555,7 +14555,7 @@
         <v>44715</v>
       </c>
       <c r="B614" t="n">
-        <v>468.2417907714844</v>
+        <v>468.2418518066406</v>
       </c>
       <c r="C614" t="n">
         <v>485.6099853515625</v>
@@ -14601,7 +14601,7 @@
         <v>44719</v>
       </c>
       <c r="B616" t="n">
-        <v>479.3209228515625</v>
+        <v>479.3208923339844</v>
       </c>
       <c r="C616" t="n">
         <v>497.1000061035156</v>
@@ -14624,7 +14624,7 @@
         <v>44720</v>
       </c>
       <c r="B617" t="n">
-        <v>475.8785705566406</v>
+        <v>475.8786010742188</v>
       </c>
       <c r="C617" t="n">
         <v>493.5299987792969</v>
@@ -14647,7 +14647,7 @@
         <v>44721</v>
       </c>
       <c r="B618" t="n">
-        <v>471.9251708984375</v>
+        <v>471.9252014160156</v>
       </c>
       <c r="C618" t="n">
         <v>489.4299926757812</v>
@@ -14670,7 +14670,7 @@
         <v>44722</v>
       </c>
       <c r="B619" t="n">
-        <v>467.296875</v>
+        <v>467.2969055175781</v>
       </c>
       <c r="C619" t="n">
         <v>484.6300048828125</v>
@@ -14739,7 +14739,7 @@
         <v>44727</v>
       </c>
       <c r="B622" t="n">
-        <v>447.7229614257812</v>
+        <v>447.7228698730469</v>
       </c>
       <c r="C622" t="n">
         <v>464.3299865722656</v>
@@ -14808,7 +14808,7 @@
         <v>44733</v>
       </c>
       <c r="B625" t="n">
-        <v>464.7926635742188</v>
+        <v>464.792724609375</v>
       </c>
       <c r="C625" t="n">
         <v>480.3200073242188</v>
@@ -14831,7 +14831,7 @@
         <v>44734</v>
       </c>
       <c r="B626" t="n">
-        <v>473.8501281738281</v>
+        <v>473.8500671386719</v>
       </c>
       <c r="C626" t="n">
         <v>489.6799926757812</v>
@@ -14854,7 +14854,7 @@
         <v>44735</v>
       </c>
       <c r="B627" t="n">
-        <v>483.652587890625</v>
+        <v>483.6526794433594</v>
       </c>
       <c r="C627" t="n">
         <v>499.8099975585938</v>
@@ -14900,7 +14900,7 @@
         <v>44739</v>
       </c>
       <c r="B629" t="n">
-        <v>489.3135375976562</v>
+        <v>489.3135681152344</v>
       </c>
       <c r="C629" t="n">
         <v>505.6600036621094</v>
@@ -14923,7 +14923,7 @@
         <v>44740</v>
       </c>
       <c r="B630" t="n">
-        <v>492.0036926269531</v>
+        <v>492.003662109375</v>
       </c>
       <c r="C630" t="n">
         <v>508.4400024414062</v>
@@ -14946,7 +14946,7 @@
         <v>44741</v>
       </c>
       <c r="B631" t="n">
-        <v>499.0386047363281</v>
+        <v>499.0386657714844</v>
       </c>
       <c r="C631" t="n">
         <v>515.7100219726562</v>
@@ -14992,7 +14992,7 @@
         <v>44743</v>
       </c>
       <c r="B633" t="n">
-        <v>500.6740112304688</v>
+        <v>500.6739807128906</v>
       </c>
       <c r="C633" t="n">
         <v>517.4000244140625</v>
@@ -15015,7 +15015,7 @@
         <v>44747</v>
       </c>
       <c r="B634" t="n">
-        <v>488.9071350097656</v>
+        <v>488.9070739746094</v>
       </c>
       <c r="C634" t="n">
         <v>505.239990234375</v>
@@ -15038,7 +15038,7 @@
         <v>44748</v>
       </c>
       <c r="B635" t="n">
-        <v>498.6322021484375</v>
+        <v>498.6321411132812</v>
       </c>
       <c r="C635" t="n">
         <v>515.2899780273438</v>
@@ -15061,7 +15061,7 @@
         <v>44749</v>
       </c>
       <c r="B636" t="n">
-        <v>497.7515869140625</v>
+        <v>497.7516174316406</v>
       </c>
       <c r="C636" t="n">
         <v>514.3800048828125</v>
@@ -15084,7 +15084,7 @@
         <v>44750</v>
       </c>
       <c r="B637" t="n">
-        <v>501.8642272949219</v>
+        <v>501.8642883300781</v>
       </c>
       <c r="C637" t="n">
         <v>518.6300048828125</v>
@@ -15107,7 +15107,7 @@
         <v>44753</v>
       </c>
       <c r="B638" t="n">
-        <v>500.2385559082031</v>
+        <v>500.238525390625</v>
       </c>
       <c r="C638" t="n">
         <v>516.9500122070312</v>
@@ -15130,7 +15130,7 @@
         <v>44754</v>
       </c>
       <c r="B639" t="n">
-        <v>497.7903137207031</v>
+        <v>497.7903442382812</v>
       </c>
       <c r="C639" t="n">
         <v>514.4199829101562</v>
@@ -15199,7 +15199,7 @@
         <v>44757</v>
       </c>
       <c r="B642" t="n">
-        <v>512.6246948242188</v>
+        <v>512.6248168945312</v>
       </c>
       <c r="C642" t="n">
         <v>529.75</v>
@@ -15222,7 +15222,7 @@
         <v>44760</v>
       </c>
       <c r="B643" t="n">
-        <v>502.5802307128906</v>
+        <v>502.5803527832031</v>
       </c>
       <c r="C643" t="n">
         <v>519.3699951171875</v>
@@ -15245,7 +15245,7 @@
         <v>44761</v>
       </c>
       <c r="B644" t="n">
-        <v>516.2051391601562</v>
+        <v>516.205078125</v>
       </c>
       <c r="C644" t="n">
         <v>533.4500122070312</v>
@@ -15268,7 +15268,7 @@
         <v>44762</v>
       </c>
       <c r="B645" t="n">
-        <v>502.6770324707031</v>
+        <v>502.6770935058594</v>
       </c>
       <c r="C645" t="n">
         <v>519.469970703125</v>
@@ -15291,7 +15291,7 @@
         <v>44763</v>
       </c>
       <c r="B646" t="n">
-        <v>505.5703735351562</v>
+        <v>505.5704345703125</v>
       </c>
       <c r="C646" t="n">
         <v>522.4600219726562</v>
@@ -15337,7 +15337,7 @@
         <v>44767</v>
       </c>
       <c r="B648" t="n">
-        <v>512.3538818359375</v>
+        <v>512.353759765625</v>
       </c>
       <c r="C648" t="n">
         <v>529.469970703125</v>
@@ -15360,7 +15360,7 @@
         <v>44768</v>
       </c>
       <c r="B649" t="n">
-        <v>514.4052734375</v>
+        <v>514.4053344726562</v>
       </c>
       <c r="C649" t="n">
         <v>531.5900268554688</v>
@@ -15383,7 +15383,7 @@
         <v>44769</v>
       </c>
       <c r="B650" t="n">
-        <v>517.3276977539062</v>
+        <v>517.3275756835938</v>
       </c>
       <c r="C650" t="n">
         <v>534.6099853515625</v>
@@ -15406,7 +15406,7 @@
         <v>44770</v>
       </c>
       <c r="B651" t="n">
-        <v>523.9851684570312</v>
+        <v>523.9852294921875</v>
       </c>
       <c r="C651" t="n">
         <v>541.489990234375</v>
@@ -15429,7 +15429,7 @@
         <v>44771</v>
       </c>
       <c r="B652" t="n">
-        <v>524.807861328125</v>
+        <v>524.8078002929688</v>
       </c>
       <c r="C652" t="n">
         <v>542.3400268554688</v>
@@ -15521,7 +15521,7 @@
         <v>44777</v>
       </c>
       <c r="B656" t="n">
-        <v>516.4954223632812</v>
+        <v>516.4954833984375</v>
       </c>
       <c r="C656" t="n">
         <v>533.75</v>
@@ -15590,7 +15590,7 @@
         <v>44782</v>
       </c>
       <c r="B659" t="n">
-        <v>519.8920288085938</v>
+        <v>519.8919677734375</v>
       </c>
       <c r="C659" t="n">
         <v>537.260009765625</v>
@@ -15659,7 +15659,7 @@
         <v>44785</v>
       </c>
       <c r="B662" t="n">
-        <v>526.123779296875</v>
+        <v>526.1238403320312</v>
       </c>
       <c r="C662" t="n">
         <v>543.7000122070312</v>
@@ -15728,7 +15728,7 @@
         <v>44790</v>
       </c>
       <c r="B665" t="n">
-        <v>527.3817138671875</v>
+        <v>527.3818359375</v>
       </c>
       <c r="C665" t="n">
         <v>545</v>
@@ -15774,7 +15774,7 @@
         <v>44792</v>
       </c>
       <c r="B667" t="n">
-        <v>530.594482421875</v>
+        <v>530.5944213867188</v>
       </c>
       <c r="C667" t="n">
         <v>548.3200073242188</v>
@@ -15797,7 +15797,7 @@
         <v>44795</v>
       </c>
       <c r="B668" t="n">
-        <v>526.9656982421875</v>
+        <v>526.965576171875</v>
       </c>
       <c r="C668" t="n">
         <v>544.5700073242188</v>
@@ -15866,7 +15866,7 @@
         <v>44798</v>
       </c>
       <c r="B671" t="n">
-        <v>524.0626831054688</v>
+        <v>524.0626220703125</v>
       </c>
       <c r="C671" t="n">
         <v>541.5700073242188</v>
@@ -15889,7 +15889,7 @@
         <v>44799</v>
       </c>
       <c r="B672" t="n">
-        <v>512.140869140625</v>
+        <v>512.1409301757812</v>
       </c>
       <c r="C672" t="n">
         <v>529.25</v>
@@ -15912,7 +15912,7 @@
         <v>44802</v>
       </c>
       <c r="B673" t="n">
-        <v>512.64404296875</v>
+        <v>512.6441650390625</v>
       </c>
       <c r="C673" t="n">
         <v>529.77001953125</v>
@@ -15935,7 +15935,7 @@
         <v>44803</v>
       </c>
       <c r="B674" t="n">
-        <v>505.9381713867188</v>
+        <v>505.9382019042969</v>
       </c>
       <c r="C674" t="n">
         <v>522.8400268554688</v>
@@ -15958,7 +15958,7 @@
         <v>44804</v>
       </c>
       <c r="B675" t="n">
-        <v>502.5415954589844</v>
+        <v>502.5416870117188</v>
       </c>
       <c r="C675" t="n">
         <v>519.3300170898438</v>
@@ -16004,7 +16004,7 @@
         <v>44806</v>
       </c>
       <c r="B677" t="n">
-        <v>499.6579284667969</v>
+        <v>499.6578979492188</v>
       </c>
       <c r="C677" t="n">
         <v>516.3499755859375</v>
@@ -16027,7 +16027,7 @@
         <v>44810</v>
       </c>
       <c r="B678" t="n">
-        <v>500.9449157714844</v>
+        <v>500.9448547363281</v>
       </c>
       <c r="C678" t="n">
         <v>517.6799926757812</v>
@@ -16050,7 +16050,7 @@
         <v>44811</v>
       </c>
       <c r="B679" t="n">
-        <v>504.8156433105469</v>
+        <v>504.8154907226562</v>
       </c>
       <c r="C679" t="n">
         <v>521.6799926757812</v>
@@ -16073,7 +16073,7 @@
         <v>44812</v>
       </c>
       <c r="B680" t="n">
-        <v>510.4572448730469</v>
+        <v>510.4571533203125</v>
       </c>
       <c r="C680" t="n">
         <v>527.510009765625</v>
@@ -16096,7 +16096,7 @@
         <v>44813</v>
       </c>
       <c r="B681" t="n">
-        <v>508.9817810058594</v>
+        <v>508.9817504882812</v>
       </c>
       <c r="C681" t="n">
         <v>524.3400268554688</v>
@@ -16119,7 +16119,7 @@
         <v>44816</v>
       </c>
       <c r="B682" t="n">
-        <v>515.6893920898438</v>
+        <v>515.6892700195312</v>
       </c>
       <c r="C682" t="n">
         <v>531.25</v>
@@ -16142,7 +16142,7 @@
         <v>44817</v>
       </c>
       <c r="B683" t="n">
-        <v>498.9058227539062</v>
+        <v>498.90576171875</v>
       </c>
       <c r="C683" t="n">
         <v>513.9600219726562</v>
@@ -16188,7 +16188,7 @@
         <v>44819</v>
       </c>
       <c r="B685" t="n">
-        <v>507.5936279296875</v>
+        <v>507.5934753417969</v>
       </c>
       <c r="C685" t="n">
         <v>522.9099731445312</v>
@@ -16211,7 +16211,7 @@
         <v>44820</v>
       </c>
       <c r="B686" t="n">
-        <v>505.759033203125</v>
+        <v>505.7589416503906</v>
       </c>
       <c r="C686" t="n">
         <v>521.02001953125</v>
@@ -16234,7 +16234,7 @@
         <v>44823</v>
       </c>
       <c r="B687" t="n">
-        <v>508.2149353027344</v>
+        <v>508.2148742675781</v>
       </c>
       <c r="C687" t="n">
         <v>523.5499877929688</v>
@@ -16257,7 +16257,7 @@
         <v>44824</v>
       </c>
       <c r="B688" t="n">
-        <v>507.4867858886719</v>
+        <v>507.4867553710938</v>
       </c>
       <c r="C688" t="n">
         <v>522.7999877929688</v>
@@ -16303,7 +16303,7 @@
         <v>44826</v>
       </c>
       <c r="B690" t="n">
-        <v>502.30322265625</v>
+        <v>502.3032531738281</v>
       </c>
       <c r="C690" t="n">
         <v>517.4600219726562</v>
@@ -16326,7 +16326,7 @@
         <v>44827</v>
       </c>
       <c r="B691" t="n">
-        <v>498.5660095214844</v>
+        <v>498.5660400390625</v>
       </c>
       <c r="C691" t="n">
         <v>513.6099853515625</v>
@@ -16395,7 +16395,7 @@
         <v>44832</v>
       </c>
       <c r="B694" t="n">
-        <v>498.8863220214844</v>
+        <v>498.8863525390625</v>
       </c>
       <c r="C694" t="n">
         <v>513.9400024414062</v>
@@ -16441,7 +16441,7 @@
         <v>44834</v>
       </c>
       <c r="B696" t="n">
-        <v>490.2470092773438</v>
+        <v>490.2470397949219</v>
       </c>
       <c r="C696" t="n">
         <v>505.0400085449219</v>
@@ -16464,7 +16464,7 @@
         <v>44837</v>
       </c>
       <c r="B697" t="n">
-        <v>500.4103088378906</v>
+        <v>500.4103393554688</v>
       </c>
       <c r="C697" t="n">
         <v>515.510009765625</v>
@@ -16487,7 +16487,7 @@
         <v>44838</v>
       </c>
       <c r="B698" t="n">
-        <v>507.8460083007812</v>
+        <v>507.845947265625</v>
       </c>
       <c r="C698" t="n">
         <v>523.1699829101562</v>
@@ -16510,7 +16510,7 @@
         <v>44839</v>
       </c>
       <c r="B699" t="n">
-        <v>511.6317749023438</v>
+        <v>511.6316528320312</v>
       </c>
       <c r="C699" t="n">
         <v>527.0700073242188</v>
@@ -16533,7 +16533,7 @@
         <v>44840</v>
       </c>
       <c r="B700" t="n">
-        <v>503.9242553710938</v>
+        <v>503.9243469238281</v>
       </c>
       <c r="C700" t="n">
         <v>519.1300048828125</v>
@@ -16579,7 +16579,7 @@
         <v>44844</v>
       </c>
       <c r="B702" t="n">
-        <v>484.2480163574219</v>
+        <v>484.2479858398438</v>
       </c>
       <c r="C702" t="n">
         <v>498.8599853515625</v>
@@ -16602,7 +16602,7 @@
         <v>44845</v>
       </c>
       <c r="B703" t="n">
-        <v>485.1701965332031</v>
+        <v>485.1702270507812</v>
       </c>
       <c r="C703" t="n">
         <v>499.8099975585938</v>
@@ -16671,7 +16671,7 @@
         <v>44848</v>
       </c>
       <c r="B706" t="n">
-        <v>498.1000671386719</v>
+        <v>498.10009765625</v>
       </c>
       <c r="C706" t="n">
         <v>513.1300048828125</v>
@@ -16694,7 +16694,7 @@
         <v>44851</v>
       </c>
       <c r="B707" t="n">
-        <v>506.59375</v>
+        <v>506.5938110351562</v>
       </c>
       <c r="C707" t="n">
         <v>521.8800048828125</v>
@@ -16717,7 +16717,7 @@
         <v>44852</v>
       </c>
       <c r="B708" t="n">
-        <v>506.9140930175781</v>
+        <v>506.9141540527344</v>
       </c>
       <c r="C708" t="n">
         <v>522.2100219726562</v>
@@ -16740,7 +16740,7 @@
         <v>44853</v>
       </c>
       <c r="B709" t="n">
-        <v>505.0795288085938</v>
+        <v>505.0794372558594</v>
       </c>
       <c r="C709" t="n">
         <v>520.3200073242188</v>
@@ -16763,7 +16763,7 @@
         <v>44854</v>
       </c>
       <c r="B710" t="n">
-        <v>505.6230773925781</v>
+        <v>505.623046875</v>
       </c>
       <c r="C710" t="n">
         <v>520.8800048828125</v>
@@ -16786,7 +16786,7 @@
         <v>44855</v>
       </c>
       <c r="B711" t="n">
-        <v>518.0966796875</v>
+        <v>518.0966186523438</v>
       </c>
       <c r="C711" t="n">
         <v>533.72998046875</v>
@@ -16809,7 +16809,7 @@
         <v>44858</v>
       </c>
       <c r="B712" t="n">
-        <v>525.7361450195312</v>
+        <v>525.736083984375</v>
       </c>
       <c r="C712" t="n">
         <v>541.5999755859375</v>
@@ -16832,7 +16832,7 @@
         <v>44859</v>
       </c>
       <c r="B713" t="n">
-        <v>524.396484375</v>
+        <v>524.3965454101562</v>
       </c>
       <c r="C713" t="n">
         <v>540.219970703125</v>
@@ -16924,7 +16924,7 @@
         <v>44865</v>
       </c>
       <c r="B717" t="n">
-        <v>538.8892822265625</v>
+        <v>538.8892211914062</v>
       </c>
       <c r="C717" t="n">
         <v>555.1500244140625</v>
@@ -16970,7 +16970,7 @@
         <v>44867</v>
       </c>
       <c r="B719" t="n">
-        <v>527.5125122070312</v>
+        <v>527.5125732421875</v>
       </c>
       <c r="C719" t="n">
         <v>543.4299926757812</v>
@@ -16993,7 +16993,7 @@
         <v>44868</v>
       </c>
       <c r="B720" t="n">
-        <v>527.687255859375</v>
+        <v>527.6873168945312</v>
       </c>
       <c r="C720" t="n">
         <v>543.6099853515625</v>
@@ -17016,7 +17016,7 @@
         <v>44869</v>
       </c>
       <c r="B721" t="n">
-        <v>522.4065551757812</v>
+        <v>522.4066162109375</v>
       </c>
       <c r="C721" t="n">
         <v>538.1699829101562</v>
@@ -17039,7 +17039,7 @@
         <v>44872</v>
       </c>
       <c r="B722" t="n">
-        <v>529.0560913085938</v>
+        <v>529.0559692382812</v>
       </c>
       <c r="C722" t="n">
         <v>545.02001953125</v>
@@ -17085,7 +17085,7 @@
         <v>44874</v>
       </c>
       <c r="B724" t="n">
-        <v>524.82373046875</v>
+        <v>524.8236083984375</v>
       </c>
       <c r="C724" t="n">
         <v>540.6599731445312</v>
@@ -17108,7 +17108,7 @@
         <v>44875</v>
       </c>
       <c r="B725" t="n">
-        <v>528.2308959960938</v>
+        <v>528.2308349609375</v>
       </c>
       <c r="C725" t="n">
         <v>544.1699829101562</v>
@@ -17131,7 +17131,7 @@
         <v>44876</v>
       </c>
       <c r="B726" t="n">
-        <v>506.7879638671875</v>
+        <v>506.7879028320312</v>
       </c>
       <c r="C726" t="n">
         <v>522.0800170898438</v>
@@ -17154,7 +17154,7 @@
         <v>44879</v>
       </c>
       <c r="B727" t="n">
-        <v>498.701904296875</v>
+        <v>498.7019348144531</v>
       </c>
       <c r="C727" t="n">
         <v>513.75</v>
@@ -17177,7 +17177,7 @@
         <v>44880</v>
       </c>
       <c r="B728" t="n">
-        <v>488.2765197753906</v>
+        <v>488.2764892578125</v>
       </c>
       <c r="C728" t="n">
         <v>503.010009765625</v>
@@ -17200,7 +17200,7 @@
         <v>44881</v>
       </c>
       <c r="B729" t="n">
-        <v>496.5371704101562</v>
+        <v>496.5372009277344</v>
       </c>
       <c r="C729" t="n">
         <v>511.5199890136719</v>
@@ -17223,7 +17223,7 @@
         <v>44882</v>
       </c>
       <c r="B730" t="n">
-        <v>500.2161865234375</v>
+        <v>500.2161560058594</v>
       </c>
       <c r="C730" t="n">
         <v>515.3099975585938</v>
@@ -17269,7 +17269,7 @@
         <v>44886</v>
       </c>
       <c r="B732" t="n">
-        <v>502.0411987304688</v>
+        <v>502.0411682128906</v>
       </c>
       <c r="C732" t="n">
         <v>517.1900024414062</v>
@@ -17315,7 +17315,7 @@
         <v>44888</v>
       </c>
       <c r="B734" t="n">
-        <v>514.1943359375</v>
+        <v>514.1944580078125</v>
       </c>
       <c r="C734" t="n">
         <v>529.7100219726562</v>
@@ -17407,7 +17407,7 @@
         <v>44895</v>
       </c>
       <c r="B738" t="n">
-        <v>531.7156982421875</v>
+        <v>531.7157592773438</v>
       </c>
       <c r="C738" t="n">
         <v>547.760009765625</v>
@@ -17430,7 +17430,7 @@
         <v>44896</v>
       </c>
       <c r="B739" t="n">
-        <v>521.1834106445312</v>
+        <v>521.1834716796875</v>
       </c>
       <c r="C739" t="n">
         <v>536.9099731445312</v>
@@ -17453,7 +17453,7 @@
         <v>44897</v>
       </c>
       <c r="B740" t="n">
-        <v>522.059814453125</v>
+        <v>522.0599365234375</v>
       </c>
       <c r="C740" t="n">
         <v>536.1599731445312</v>
@@ -17476,7 +17476,7 @@
         <v>44900</v>
       </c>
       <c r="B741" t="n">
-        <v>520.9693603515625</v>
+        <v>520.96923828125</v>
       </c>
       <c r="C741" t="n">
         <v>535.0399780273438</v>
@@ -17499,7 +17499,7 @@
         <v>44901</v>
       </c>
       <c r="B742" t="n">
-        <v>525.13671875</v>
+        <v>525.1367797851562</v>
       </c>
       <c r="C742" t="n">
         <v>539.3200073242188</v>
@@ -17545,7 +17545,7 @@
         <v>44903</v>
       </c>
       <c r="B744" t="n">
-        <v>533.5105590820312</v>
+        <v>533.5106201171875</v>
       </c>
       <c r="C744" t="n">
         <v>547.9199829101562</v>
@@ -17591,7 +17591,7 @@
         <v>44907</v>
       </c>
       <c r="B746" t="n">
-        <v>531.5047607421875</v>
+        <v>531.5046997070312</v>
       </c>
       <c r="C746" t="n">
         <v>545.8599853515625</v>
@@ -17660,7 +17660,7 @@
         <v>44910</v>
       </c>
       <c r="B749" t="n">
-        <v>513.802978515625</v>
+        <v>513.8028564453125</v>
       </c>
       <c r="C749" t="n">
         <v>527.6799926757812</v>
@@ -17683,7 +17683,7 @@
         <v>44911</v>
       </c>
       <c r="B750" t="n">
-        <v>509.927490234375</v>
+        <v>509.9275817871094</v>
       </c>
       <c r="C750" t="n">
         <v>523.7000122070312</v>
@@ -17729,7 +17729,7 @@
         <v>44915</v>
       </c>
       <c r="B752" t="n">
-        <v>506.5293579101562</v>
+        <v>506.5293273925781</v>
       </c>
       <c r="C752" t="n">
         <v>520.2100219726562</v>
@@ -17752,7 +17752,7 @@
         <v>44916</v>
       </c>
       <c r="B753" t="n">
-        <v>513.6665649414062</v>
+        <v>513.66650390625</v>
       </c>
       <c r="C753" t="n">
         <v>527.5399780273438</v>
@@ -17775,7 +17775,7 @@
         <v>44917</v>
       </c>
       <c r="B754" t="n">
-        <v>513.2284545898438</v>
+        <v>513.2283935546875</v>
       </c>
       <c r="C754" t="n">
         <v>527.0900268554688</v>
@@ -17798,7 +17798,7 @@
         <v>44918</v>
       </c>
       <c r="B755" t="n">
-        <v>517.3373413085938</v>
+        <v>517.33740234375</v>
       </c>
       <c r="C755" t="n">
         <v>531.3099975585938</v>
@@ -17844,7 +17844,7 @@
         <v>44923</v>
       </c>
       <c r="B757" t="n">
-        <v>514.5526733398438</v>
+        <v>514.5526123046875</v>
       </c>
       <c r="C757" t="n">
         <v>528.4500122070312</v>
@@ -17867,7 +17867,7 @@
         <v>44924</v>
       </c>
       <c r="B758" t="n">
-        <v>515.9451293945312</v>
+        <v>515.9449462890625</v>
       </c>
       <c r="C758" t="n">
         <v>529.8800048828125</v>
@@ -17913,7 +17913,7 @@
         <v>44929</v>
       </c>
       <c r="B760" t="n">
-        <v>505.0006103515625</v>
+        <v>505.0006408691406</v>
       </c>
       <c r="C760" t="n">
         <v>518.6400146484375</v>
@@ -17959,7 +17959,7 @@
         <v>44931</v>
       </c>
       <c r="B762" t="n">
-        <v>477.0748291015625</v>
+        <v>477.0748596191406</v>
       </c>
       <c r="C762" t="n">
         <v>489.9599914550781</v>
@@ -18005,7 +18005,7 @@
         <v>44935</v>
       </c>
       <c r="B764" t="n">
-        <v>477.1722106933594</v>
+        <v>477.1722412109375</v>
       </c>
       <c r="C764" t="n">
         <v>490.0599975585938</v>
@@ -18028,7 +18028,7 @@
         <v>44936</v>
       </c>
       <c r="B765" t="n">
-        <v>473.2190246582031</v>
+        <v>473.218994140625</v>
       </c>
       <c r="C765" t="n">
         <v>486</v>
@@ -18074,7 +18074,7 @@
         <v>44938</v>
       </c>
       <c r="B767" t="n">
-        <v>482.6346435546875</v>
+        <v>482.6346740722656</v>
       </c>
       <c r="C767" t="n">
         <v>495.6700134277344</v>
@@ -18097,7 +18097,7 @@
         <v>44939</v>
       </c>
       <c r="B768" t="n">
-        <v>476.6951293945312</v>
+        <v>476.6950988769531</v>
       </c>
       <c r="C768" t="n">
         <v>489.5700073242188</v>
@@ -18120,7 +18120,7 @@
         <v>44943</v>
       </c>
       <c r="B769" t="n">
-        <v>472.3231811523438</v>
+        <v>472.3232116699219</v>
       </c>
       <c r="C769" t="n">
         <v>485.0799865722656</v>
@@ -18166,7 +18166,7 @@
         <v>44945</v>
       </c>
       <c r="B771" t="n">
-        <v>471.6220703125</v>
+        <v>471.6221313476562</v>
       </c>
       <c r="C771" t="n">
         <v>484.3599853515625</v>
@@ -18189,7 +18189,7 @@
         <v>44946</v>
       </c>
       <c r="B772" t="n">
-        <v>473.9200744628906</v>
+        <v>473.9200439453125</v>
       </c>
       <c r="C772" t="n">
         <v>486.7200012207031</v>
@@ -18212,7 +18212,7 @@
         <v>44949</v>
       </c>
       <c r="B773" t="n">
-        <v>473.0339965820312</v>
+        <v>473.0339660644531</v>
       </c>
       <c r="C773" t="n">
         <v>485.8099975585938</v>
@@ -18235,7 +18235,7 @@
         <v>44950</v>
       </c>
       <c r="B774" t="n">
-        <v>478.6717224121094</v>
+        <v>478.6716918945312</v>
       </c>
       <c r="C774" t="n">
         <v>491.6000061035156</v>
@@ -18258,7 +18258,7 @@
         <v>44951</v>
       </c>
       <c r="B775" t="n">
-        <v>479.5480651855469</v>
+        <v>479.548095703125</v>
       </c>
       <c r="C775" t="n">
         <v>492.5</v>
@@ -18281,7 +18281,7 @@
         <v>44952</v>
       </c>
       <c r="B776" t="n">
-        <v>479.5285949707031</v>
+        <v>479.528564453125</v>
       </c>
       <c r="C776" t="n">
         <v>492.4800109863281</v>
@@ -18304,7 +18304,7 @@
         <v>44953</v>
       </c>
       <c r="B777" t="n">
-        <v>473.2676391601562</v>
+        <v>473.2676696777344</v>
       </c>
       <c r="C777" t="n">
         <v>486.0499877929688</v>
@@ -18327,7 +18327,7 @@
         <v>44956</v>
       </c>
       <c r="B778" t="n">
-        <v>473.0145263671875</v>
+        <v>473.0145568847656</v>
       </c>
       <c r="C778" t="n">
         <v>485.7900085449219</v>
@@ -18350,7 +18350,7 @@
         <v>44957</v>
       </c>
       <c r="B779" t="n">
-        <v>486.0621032714844</v>
+        <v>486.0621337890625</v>
       </c>
       <c r="C779" t="n">
         <v>499.1900024414062</v>
@@ -18373,7 +18373,7 @@
         <v>44958</v>
       </c>
       <c r="B780" t="n">
-        <v>483.9297180175781</v>
+        <v>483.9296875</v>
       </c>
       <c r="C780" t="n">
         <v>497</v>
@@ -18396,7 +18396,7 @@
         <v>44959</v>
       </c>
       <c r="B781" t="n">
-        <v>458.4479370117188</v>
+        <v>458.4479064941406</v>
       </c>
       <c r="C781" t="n">
         <v>470.8299865722656</v>
@@ -18465,7 +18465,7 @@
         <v>44964</v>
       </c>
       <c r="B784" t="n">
-        <v>464.3388366699219</v>
+        <v>464.3388671875</v>
       </c>
       <c r="C784" t="n">
         <v>476.8800048828125</v>
@@ -18511,7 +18511,7 @@
         <v>44966</v>
       </c>
       <c r="B786" t="n">
-        <v>472.9561157226562</v>
+        <v>472.9560546875</v>
       </c>
       <c r="C786" t="n">
         <v>485.7300109863281</v>
@@ -18557,7 +18557,7 @@
         <v>44970</v>
       </c>
       <c r="B788" t="n">
-        <v>482.3230895996094</v>
+        <v>482.3231201171875</v>
       </c>
       <c r="C788" t="n">
         <v>495.3500061035156</v>
@@ -18580,7 +18580,7 @@
         <v>44971</v>
       </c>
       <c r="B789" t="n">
-        <v>479.869384765625</v>
+        <v>479.8694152832031</v>
       </c>
       <c r="C789" t="n">
         <v>492.8299865722656</v>
@@ -18603,7 +18603,7 @@
         <v>44972</v>
       </c>
       <c r="B790" t="n">
-        <v>478.3309631347656</v>
+        <v>478.3309326171875</v>
       </c>
       <c r="C790" t="n">
         <v>491.25</v>
@@ -18626,7 +18626,7 @@
         <v>44973</v>
       </c>
       <c r="B791" t="n">
-        <v>474.5335083007812</v>
+        <v>474.5334777832031</v>
       </c>
       <c r="C791" t="n">
         <v>487.3500061035156</v>
@@ -18649,7 +18649,7 @@
         <v>44974</v>
       </c>
       <c r="B792" t="n">
-        <v>485.9549560546875</v>
+        <v>485.9549865722656</v>
       </c>
       <c r="C792" t="n">
         <v>499.0799865722656</v>
@@ -18672,7 +18672,7 @@
         <v>44978</v>
       </c>
       <c r="B793" t="n">
-        <v>478.3893432617188</v>
+        <v>478.3893127441406</v>
       </c>
       <c r="C793" t="n">
         <v>491.3099975585938</v>
@@ -18695,7 +18695,7 @@
         <v>44979</v>
       </c>
       <c r="B794" t="n">
-        <v>476.0329895019531</v>
+        <v>476.0330200195312</v>
       </c>
       <c r="C794" t="n">
         <v>488.8900146484375</v>
@@ -18718,7 +18718,7 @@
         <v>44980</v>
       </c>
       <c r="B795" t="n">
-        <v>478.7593688964844</v>
+        <v>478.7593383789062</v>
       </c>
       <c r="C795" t="n">
         <v>491.6900024414062</v>
@@ -18741,7 +18741,7 @@
         <v>44981</v>
       </c>
       <c r="B796" t="n">
-        <v>471.5928955078125</v>
+        <v>471.5929260253906</v>
       </c>
       <c r="C796" t="n">
         <v>484.3299865722656</v>
@@ -18764,7 +18764,7 @@
         <v>44984</v>
       </c>
       <c r="B797" t="n">
-        <v>470.6094665527344</v>
+        <v>470.6094970703125</v>
       </c>
       <c r="C797" t="n">
         <v>483.3200073242188</v>
@@ -18787,7 +18787,7 @@
         <v>44985</v>
       </c>
       <c r="B798" t="n">
-        <v>463.4235229492188</v>
+        <v>463.4235534667969</v>
       </c>
       <c r="C798" t="n">
         <v>475.9400024414062</v>
@@ -18833,7 +18833,7 @@
         <v>44987</v>
       </c>
       <c r="B800" t="n">
-        <v>465.1372375488281</v>
+        <v>465.1372680664062</v>
       </c>
       <c r="C800" t="n">
         <v>477.7000122070312</v>
@@ -18856,7 +18856,7 @@
         <v>44988</v>
       </c>
       <c r="B801" t="n">
-        <v>465.974609375</v>
+        <v>465.9746398925781</v>
       </c>
       <c r="C801" t="n">
         <v>478.5599975585938</v>
@@ -18879,7 +18879,7 @@
         <v>44991</v>
       </c>
       <c r="B802" t="n">
-        <v>468.1362609863281</v>
+        <v>468.13623046875</v>
       </c>
       <c r="C802" t="n">
         <v>480.7799987792969</v>
@@ -18902,7 +18902,7 @@
         <v>44992</v>
       </c>
       <c r="B803" t="n">
-        <v>461.417724609375</v>
+        <v>461.4177551269531</v>
       </c>
       <c r="C803" t="n">
         <v>473.8800048828125</v>
@@ -18971,7 +18971,7 @@
         <v>44995</v>
       </c>
       <c r="B806" t="n">
-        <v>449.8204956054688</v>
+        <v>449.820556640625</v>
       </c>
       <c r="C806" t="n">
         <v>460.3299865722656</v>
@@ -19017,7 +19017,7 @@
         <v>44999</v>
       </c>
       <c r="B808" t="n">
-        <v>453.9734802246094</v>
+        <v>453.9735107421875</v>
       </c>
       <c r="C808" t="n">
         <v>464.5799865722656</v>
@@ -19040,7 +19040,7 @@
         <v>45000</v>
       </c>
       <c r="B809" t="n">
-        <v>454.8040771484375</v>
+        <v>454.8041076660156</v>
       </c>
       <c r="C809" t="n">
         <v>465.4299926757812</v>
@@ -19063,7 +19063,7 @@
         <v>45001</v>
       </c>
       <c r="B810" t="n">
-        <v>461.24365234375</v>
+        <v>461.2436218261719</v>
       </c>
       <c r="C810" t="n">
         <v>472.0199890136719</v>
@@ -19086,7 +19086,7 @@
         <v>45002</v>
       </c>
       <c r="B811" t="n">
-        <v>458.7811584472656</v>
+        <v>458.7811279296875</v>
       </c>
       <c r="C811" t="n">
         <v>469.5</v>
@@ -19109,7 +19109,7 @@
         <v>45005</v>
       </c>
       <c r="B812" t="n">
-        <v>466.0708312988281</v>
+        <v>466.07080078125</v>
       </c>
       <c r="C812" t="n">
         <v>476.9599914550781</v>
@@ -19132,7 +19132,7 @@
         <v>45006</v>
       </c>
       <c r="B813" t="n">
-        <v>469.1391296386719</v>
+        <v>469.13916015625</v>
       </c>
       <c r="C813" t="n">
         <v>480.1000061035156</v>
@@ -19155,7 +19155,7 @@
         <v>45007</v>
       </c>
       <c r="B814" t="n">
-        <v>464.6637268066406</v>
+        <v>464.6636962890625</v>
       </c>
       <c r="C814" t="n">
         <v>475.5199890136719</v>
@@ -19178,7 +19178,7 @@
         <v>45008</v>
       </c>
       <c r="B815" t="n">
-        <v>459.1818237304688</v>
+        <v>459.1817932128906</v>
       </c>
       <c r="C815" t="n">
         <v>469.9100036621094</v>
@@ -19201,7 +19201,7 @@
         <v>45009</v>
       </c>
       <c r="B816" t="n">
-        <v>465.1230163574219</v>
+        <v>465.1229858398438</v>
       </c>
       <c r="C816" t="n">
         <v>475.989990234375</v>
@@ -19224,7 +19224,7 @@
         <v>45012</v>
       </c>
       <c r="B817" t="n">
-        <v>470.8980712890625</v>
+        <v>470.8981018066406</v>
       </c>
       <c r="C817" t="n">
         <v>481.8999938964844</v>
@@ -19270,7 +19270,7 @@
         <v>45014</v>
       </c>
       <c r="B819" t="n">
-        <v>455.9375915527344</v>
+        <v>455.9376220703125</v>
       </c>
       <c r="C819" t="n">
         <v>466.5899963378906</v>
@@ -19316,7 +19316,7 @@
         <v>45016</v>
       </c>
       <c r="B821" t="n">
-        <v>461.8006591796875</v>
+        <v>461.8006896972656</v>
       </c>
       <c r="C821" t="n">
         <v>472.5899963378906</v>
@@ -19339,7 +19339,7 @@
         <v>45019</v>
       </c>
       <c r="B822" t="n">
-        <v>482.9075317382812</v>
+        <v>482.907470703125</v>
       </c>
       <c r="C822" t="n">
         <v>494.1900024414062</v>
@@ -19362,7 +19362,7 @@
         <v>45020</v>
       </c>
       <c r="B823" t="n">
-        <v>481.9889526367188</v>
+        <v>481.9889831542969</v>
       </c>
       <c r="C823" t="n">
         <v>493.25</v>
@@ -19408,7 +19408,7 @@
         <v>45022</v>
       </c>
       <c r="B825" t="n">
-        <v>501.1023864746094</v>
+        <v>501.1023559570312</v>
       </c>
       <c r="C825" t="n">
         <v>512.8099975585938</v>
@@ -19431,7 +19431,7 @@
         <v>45026</v>
       </c>
       <c r="B826" t="n">
-        <v>503.4183044433594</v>
+        <v>503.4182434082031</v>
       </c>
       <c r="C826" t="n">
         <v>515.1799926757812</v>
@@ -19454,7 +19454,7 @@
         <v>45027</v>
       </c>
       <c r="B827" t="n">
-        <v>509.0760498046875</v>
+        <v>509.0760803222656</v>
       </c>
       <c r="C827" t="n">
         <v>520.969970703125</v>
@@ -19546,7 +19546,7 @@
         <v>45033</v>
       </c>
       <c r="B831" t="n">
-        <v>493.812744140625</v>
+        <v>493.8126831054688</v>
       </c>
       <c r="C831" t="n">
         <v>505.3500061035156</v>
@@ -19592,7 +19592,7 @@
         <v>45035</v>
       </c>
       <c r="B833" t="n">
-        <v>475.0999450683594</v>
+        <v>475.0998840332031</v>
       </c>
       <c r="C833" t="n">
         <v>486.2000122070312</v>
@@ -19615,7 +19615,7 @@
         <v>45036</v>
       </c>
       <c r="B834" t="n">
-        <v>476.3311462402344</v>
+        <v>476.3311157226562</v>
       </c>
       <c r="C834" t="n">
         <v>487.4599914550781</v>
@@ -19661,7 +19661,7 @@
         <v>45040</v>
       </c>
       <c r="B836" t="n">
-        <v>477.7773742675781</v>
+        <v>477.77734375</v>
       </c>
       <c r="C836" t="n">
         <v>488.9400024414062</v>
@@ -19707,7 +19707,7 @@
         <v>45042</v>
       </c>
       <c r="B838" t="n">
-        <v>471.9241333007812</v>
+        <v>471.924072265625</v>
       </c>
       <c r="C838" t="n">
         <v>482.9500122070312</v>
@@ -19822,7 +19822,7 @@
         <v>45049</v>
       </c>
       <c r="B843" t="n">
-        <v>478.2659606933594</v>
+        <v>478.2659301757812</v>
       </c>
       <c r="C843" t="n">
         <v>489.4400024414062</v>
@@ -19845,7 +19845,7 @@
         <v>45050</v>
       </c>
       <c r="B844" t="n">
-        <v>476.1552734375</v>
+        <v>476.1552429199219</v>
       </c>
       <c r="C844" t="n">
         <v>487.2799987792969</v>
@@ -19868,7 +19868,7 @@
         <v>45051</v>
       </c>
       <c r="B845" t="n">
-        <v>482.9953918457031</v>
+        <v>482.9954833984375</v>
       </c>
       <c r="C845" t="n">
         <v>494.2799987792969</v>
@@ -19891,7 +19891,7 @@
         <v>45054</v>
       </c>
       <c r="B846" t="n">
-        <v>481.3733215332031</v>
+        <v>481.3733520507812</v>
       </c>
       <c r="C846" t="n">
         <v>492.6199951171875</v>
@@ -19914,7 +19914,7 @@
         <v>45055</v>
       </c>
       <c r="B847" t="n">
-        <v>479.1844787597656</v>
+        <v>479.1844482421875</v>
       </c>
       <c r="C847" t="n">
         <v>490.3800048828125</v>
@@ -19937,7 +19937,7 @@
         <v>45056</v>
       </c>
       <c r="B848" t="n">
-        <v>478.8815307617188</v>
+        <v>478.881591796875</v>
       </c>
       <c r="C848" t="n">
         <v>490.0700073242188</v>
@@ -20052,7 +20052,7 @@
         <v>45063</v>
       </c>
       <c r="B853" t="n">
-        <v>473.7416381835938</v>
+        <v>473.7416687011719</v>
       </c>
       <c r="C853" t="n">
         <v>484.8099975585938</v>
@@ -20144,7 +20144,7 @@
         <v>45069</v>
       </c>
       <c r="B857" t="n">
-        <v>468.4942321777344</v>
+        <v>468.4942626953125</v>
       </c>
       <c r="C857" t="n">
         <v>479.4400024414062</v>
@@ -20190,7 +20190,7 @@
         <v>45071</v>
       </c>
       <c r="B859" t="n">
-        <v>466.7939453125</v>
+        <v>466.7939758300781</v>
       </c>
       <c r="C859" t="n">
         <v>477.7000122070312</v>
@@ -20213,7 +20213,7 @@
         <v>45072</v>
       </c>
       <c r="B860" t="n">
-        <v>470.5267944335938</v>
+        <v>470.5267639160156</v>
       </c>
       <c r="C860" t="n">
         <v>481.5199890136719</v>
@@ -20259,7 +20259,7 @@
         <v>45077</v>
       </c>
       <c r="B862" t="n">
-        <v>476.1161804199219</v>
+        <v>476.1161193847656</v>
       </c>
       <c r="C862" t="n">
         <v>487.239990234375</v>
@@ -20305,7 +20305,7 @@
         <v>45079</v>
       </c>
       <c r="B864" t="n">
-        <v>488.1744384765625</v>
+        <v>488.1743774414062</v>
       </c>
       <c r="C864" t="n">
         <v>499.5799865722656</v>
@@ -20351,7 +20351,7 @@
         <v>45083</v>
       </c>
       <c r="B866" t="n">
-        <v>476.4386596679688</v>
+        <v>476.4386291503906</v>
       </c>
       <c r="C866" t="n">
         <v>487.5700073242188</v>
@@ -20466,7 +20466,7 @@
         <v>45090</v>
       </c>
       <c r="B871" t="n">
-        <v>480.09326171875</v>
+        <v>480.0932006835938</v>
       </c>
       <c r="C871" t="n">
         <v>491.3099975585938</v>
@@ -20512,7 +20512,7 @@
         <v>45092</v>
       </c>
       <c r="B873" t="n">
-        <v>457.1224365234375</v>
+        <v>457.1224060058594</v>
       </c>
       <c r="C873" t="n">
         <v>465.8900146484375</v>
@@ -20535,7 +20535,7 @@
         <v>45093</v>
       </c>
       <c r="B874" t="n">
-        <v>449.8616333007812</v>
+        <v>449.8616638183594</v>
       </c>
       <c r="C874" t="n">
         <v>458.489990234375</v>
@@ -20558,7 +20558,7 @@
         <v>45097</v>
       </c>
       <c r="B875" t="n">
-        <v>460.5565795898438</v>
+        <v>460.5565490722656</v>
       </c>
       <c r="C875" t="n">
         <v>469.3900146484375</v>
@@ -20581,7 +20581,7 @@
         <v>45098</v>
       </c>
       <c r="B876" t="n">
-        <v>467.7780456542969</v>
+        <v>467.7780151367188</v>
       </c>
       <c r="C876" t="n">
         <v>476.75</v>
@@ -20604,7 +20604,7 @@
         <v>45099</v>
       </c>
       <c r="B877" t="n">
-        <v>470.0347595214844</v>
+        <v>470.0347290039062</v>
       </c>
       <c r="C877" t="n">
         <v>479.0499877929688</v>
@@ -20650,7 +20650,7 @@
         <v>45103</v>
       </c>
       <c r="B879" t="n">
-        <v>470.0445556640625</v>
+        <v>470.0445861816406</v>
       </c>
       <c r="C879" t="n">
         <v>479.0599975585938</v>
@@ -20719,7 +20719,7 @@
         <v>45106</v>
       </c>
       <c r="B882" t="n">
-        <v>467.4739074707031</v>
+        <v>467.473876953125</v>
       </c>
       <c r="C882" t="n">
         <v>476.4400024414062</v>
@@ -20765,7 +20765,7 @@
         <v>45110</v>
       </c>
       <c r="B884" t="n">
-        <v>468.8868103027344</v>
+        <v>468.8867797851562</v>
       </c>
       <c r="C884" t="n">
         <v>477.8800048828125</v>
@@ -20788,7 +20788,7 @@
         <v>45112</v>
       </c>
       <c r="B885" t="n">
-        <v>462.3521118164062</v>
+        <v>462.3521423339844</v>
       </c>
       <c r="C885" t="n">
         <v>471.2200012207031</v>
@@ -20834,7 +20834,7 @@
         <v>45114</v>
       </c>
       <c r="B887" t="n">
-        <v>452.8934936523438</v>
+        <v>452.8935546875</v>
       </c>
       <c r="C887" t="n">
         <v>461.5799865722656</v>
@@ -20857,7 +20857,7 @@
         <v>45117</v>
       </c>
       <c r="B888" t="n">
-        <v>454.3358459472656</v>
+        <v>454.3358154296875</v>
       </c>
       <c r="C888" t="n">
         <v>463.0499877929688</v>
@@ -20926,7 +20926,7 @@
         <v>45120</v>
       </c>
       <c r="B891" t="n">
-        <v>439.3237915039062</v>
+        <v>439.3237609863281</v>
       </c>
       <c r="C891" t="n">
         <v>447.75</v>
@@ -20972,7 +20972,7 @@
         <v>45124</v>
       </c>
       <c r="B893" t="n">
-        <v>474.9700622558594</v>
+        <v>474.9700927734375</v>
       </c>
       <c r="C893" t="n">
         <v>484.0799865722656</v>
@@ -20995,7 +20995,7 @@
         <v>45125</v>
       </c>
       <c r="B894" t="n">
-        <v>490.5904541015625</v>
+        <v>490.5904846191406</v>
       </c>
       <c r="C894" t="n">
         <v>500</v>
@@ -21041,7 +21041,7 @@
         <v>45127</v>
       </c>
       <c r="B896" t="n">
-        <v>494.7507019042969</v>
+        <v>494.7506713867188</v>
       </c>
       <c r="C896" t="n">
         <v>504.239990234375</v>
@@ -21064,7 +21064,7 @@
         <v>45128</v>
       </c>
       <c r="B897" t="n">
-        <v>496.9976196289062</v>
+        <v>496.9975891113281</v>
       </c>
       <c r="C897" t="n">
         <v>506.5299987792969</v>
@@ -21087,7 +21087,7 @@
         <v>45131</v>
       </c>
       <c r="B898" t="n">
-        <v>499.1071472167969</v>
+        <v>499.107177734375</v>
       </c>
       <c r="C898" t="n">
         <v>508.6799926757812</v>
@@ -21156,7 +21156,7 @@
         <v>45134</v>
       </c>
       <c r="B901" t="n">
-        <v>495.7220764160156</v>
+        <v>495.7220458984375</v>
       </c>
       <c r="C901" t="n">
         <v>505.2300109863281</v>
@@ -21271,7 +21271,7 @@
         <v>45141</v>
       </c>
       <c r="B906" t="n">
-        <v>495.3589782714844</v>
+        <v>495.3590087890625</v>
       </c>
       <c r="C906" t="n">
         <v>504.8599853515625</v>
@@ -21294,7 +21294,7 @@
         <v>45142</v>
       </c>
       <c r="B907" t="n">
-        <v>493.2691040039062</v>
+        <v>493.2691345214844</v>
       </c>
       <c r="C907" t="n">
         <v>502.7300109863281</v>
@@ -21317,7 +21317,7 @@
         <v>45145</v>
       </c>
       <c r="B908" t="n">
-        <v>501.1283569335938</v>
+        <v>501.1283874511719</v>
       </c>
       <c r="C908" t="n">
         <v>510.739990234375</v>
@@ -21409,7 +21409,7 @@
         <v>45149</v>
       </c>
       <c r="B912" t="n">
-        <v>498.4497680664062</v>
+        <v>498.4497375488281</v>
       </c>
       <c r="C912" t="n">
         <v>508.010009765625</v>
@@ -21455,7 +21455,7 @@
         <v>45153</v>
       </c>
       <c r="B914" t="n">
-        <v>497.1545715332031</v>
+        <v>497.1546020507812</v>
       </c>
       <c r="C914" t="n">
         <v>506.6900024414062</v>
@@ -21478,7 +21478,7 @@
         <v>45154</v>
       </c>
       <c r="B915" t="n">
-        <v>494.0834655761719</v>
+        <v>494.08349609375</v>
       </c>
       <c r="C915" t="n">
         <v>503.5599975585938</v>
@@ -21570,7 +21570,7 @@
         <v>45160</v>
       </c>
       <c r="B919" t="n">
-        <v>483.0746154785156</v>
+        <v>483.0746459960938</v>
       </c>
       <c r="C919" t="n">
         <v>492.3399963378906</v>
@@ -21593,7 +21593,7 @@
         <v>45161</v>
       </c>
       <c r="B920" t="n">
-        <v>480.229248046875</v>
+        <v>480.2292175292969</v>
       </c>
       <c r="C920" t="n">
         <v>489.4400024414062</v>
@@ -21616,7 +21616,7 @@
         <v>45162</v>
       </c>
       <c r="B921" t="n">
-        <v>478.9144592285156</v>
+        <v>478.9144287109375</v>
       </c>
       <c r="C921" t="n">
         <v>488.1000061035156</v>
@@ -21639,7 +21639,7 @@
         <v>45163</v>
       </c>
       <c r="B922" t="n">
-        <v>479.9152526855469</v>
+        <v>479.9152221679688</v>
       </c>
       <c r="C922" t="n">
         <v>489.1199951171875</v>
@@ -21662,7 +21662,7 @@
         <v>45166</v>
       </c>
       <c r="B923" t="n">
-        <v>482.0345764160156</v>
+        <v>482.0346069335938</v>
       </c>
       <c r="C923" t="n">
         <v>491.2799987792969</v>
@@ -21708,7 +21708,7 @@
         <v>45168</v>
       </c>
       <c r="B925" t="n">
-        <v>482.2799072265625</v>
+        <v>482.2798767089844</v>
       </c>
       <c r="C925" t="n">
         <v>491.5299987792969</v>
@@ -21731,7 +21731,7 @@
         <v>45169</v>
       </c>
       <c r="B926" t="n">
-        <v>467.6112365722656</v>
+        <v>467.6112060546875</v>
       </c>
       <c r="C926" t="n">
         <v>476.5799865722656</v>
@@ -21777,7 +21777,7 @@
         <v>45174</v>
       </c>
       <c r="B928" t="n">
-        <v>471.7616271972656</v>
+        <v>471.7615966796875</v>
       </c>
       <c r="C928" t="n">
         <v>480.8099975585938</v>
@@ -21800,7 +21800,7 @@
         <v>45175</v>
       </c>
       <c r="B929" t="n">
-        <v>467.9644775390625</v>
+        <v>467.9644470214844</v>
       </c>
       <c r="C929" t="n">
         <v>476.9400024414062</v>
@@ -21823,7 +21823,7 @@
         <v>45176</v>
       </c>
       <c r="B930" t="n">
-        <v>475.6863403320312</v>
+        <v>475.6863708496094</v>
       </c>
       <c r="C930" t="n">
         <v>484.8099975585938</v>
@@ -21846,7 +21846,7 @@
         <v>45177</v>
       </c>
       <c r="B931" t="n">
-        <v>473.5587158203125</v>
+        <v>473.5587463378906</v>
       </c>
       <c r="C931" t="n">
         <v>480.7699890136719</v>
@@ -21869,7 +21869,7 @@
         <v>45180</v>
       </c>
       <c r="B932" t="n">
-        <v>472.1896057128906</v>
+        <v>472.1896362304688</v>
       </c>
       <c r="C932" t="n">
         <v>479.3800048828125</v>
@@ -21892,7 +21892,7 @@
         <v>45181</v>
       </c>
       <c r="B933" t="n">
-        <v>472.7018127441406</v>
+        <v>472.7017822265625</v>
       </c>
       <c r="C933" t="n">
         <v>479.8999938964844</v>
@@ -21915,7 +21915,7 @@
         <v>45182</v>
       </c>
       <c r="B934" t="n">
-        <v>472.6426696777344</v>
+        <v>472.6427001953125</v>
       </c>
       <c r="C934" t="n">
         <v>479.8399963378906</v>
@@ -21984,7 +21984,7 @@
         <v>45187</v>
       </c>
       <c r="B937" t="n">
-        <v>478.7694396972656</v>
+        <v>478.7694091796875</v>
       </c>
       <c r="C937" t="n">
         <v>486.0599975585938</v>
@@ -22099,7 +22099,7 @@
         <v>45194</v>
       </c>
       <c r="B942" t="n">
-        <v>502.6261291503906</v>
+        <v>502.6261596679688</v>
       </c>
       <c r="C942" t="n">
         <v>510.2799987792969</v>
@@ -22191,7 +22191,7 @@
         <v>45198</v>
       </c>
       <c r="B946" t="n">
-        <v>496.6274719238281</v>
+        <v>496.62744140625</v>
       </c>
       <c r="C946" t="n">
         <v>504.1900024414062</v>
@@ -22214,7 +22214,7 @@
         <v>45201</v>
       </c>
       <c r="B947" t="n">
-        <v>506.851806640625</v>
+        <v>506.8517761230469</v>
       </c>
       <c r="C947" t="n">
         <v>514.5700073242188</v>
@@ -22237,7 +22237,7 @@
         <v>45202</v>
       </c>
       <c r="B948" t="n">
-        <v>501.8282470703125</v>
+        <v>501.8282775878906</v>
       </c>
       <c r="C948" t="n">
         <v>509.4700012207031</v>
@@ -22283,7 +22283,7 @@
         <v>45204</v>
       </c>
       <c r="B950" t="n">
-        <v>508.48681640625</v>
+        <v>508.4868469238281</v>
       </c>
       <c r="C950" t="n">
         <v>516.22998046875</v>
@@ -22306,7 +22306,7 @@
         <v>45205</v>
       </c>
       <c r="B951" t="n">
-        <v>516.9381713867188</v>
+        <v>516.938232421875</v>
       </c>
       <c r="C951" t="n">
         <v>524.8099975585938</v>
@@ -22421,7 +22421,7 @@
         <v>45212</v>
       </c>
       <c r="B956" t="n">
-        <v>531.309326171875</v>
+        <v>531.3093872070312</v>
       </c>
       <c r="C956" t="n">
         <v>539.4000244140625</v>
@@ -22467,7 +22467,7 @@
         <v>45216</v>
       </c>
       <c r="B958" t="n">
-        <v>528.6005859375</v>
+        <v>528.6006469726562</v>
       </c>
       <c r="C958" t="n">
         <v>536.6500244140625</v>
@@ -22513,7 +22513,7 @@
         <v>45218</v>
       </c>
       <c r="B960" t="n">
-        <v>523.6559448242188</v>
+        <v>523.6558837890625</v>
       </c>
       <c r="C960" t="n">
         <v>531.6300048828125</v>
@@ -22536,7 +22536,7 @@
         <v>45219</v>
       </c>
       <c r="B961" t="n">
-        <v>519.1249389648438</v>
+        <v>519.1248779296875</v>
       </c>
       <c r="C961" t="n">
         <v>527.030029296875</v>
@@ -22559,7 +22559,7 @@
         <v>45222</v>
       </c>
       <c r="B962" t="n">
-        <v>513.746826171875</v>
+        <v>513.7467651367188</v>
       </c>
       <c r="C962" t="n">
         <v>521.5700073242188</v>
@@ -22605,7 +22605,7 @@
         <v>45224</v>
       </c>
       <c r="B964" t="n">
-        <v>522.2572631835938</v>
+        <v>522.2572021484375</v>
       </c>
       <c r="C964" t="n">
         <v>530.2100219726562</v>
@@ -22674,7 +22674,7 @@
         <v>45229</v>
       </c>
       <c r="B967" t="n">
-        <v>522.0404663085938</v>
+        <v>522.04052734375</v>
       </c>
       <c r="C967" t="n">
         <v>529.989990234375</v>
@@ -22697,7 +22697,7 @@
         <v>45230</v>
       </c>
       <c r="B968" t="n">
-        <v>527.5269775390625</v>
+        <v>527.5269165039062</v>
       </c>
       <c r="C968" t="n">
         <v>535.5599975585938</v>
@@ -22743,7 +22743,7 @@
         <v>45232</v>
       </c>
       <c r="B970" t="n">
-        <v>528.08837890625</v>
+        <v>528.0884399414062</v>
       </c>
       <c r="C970" t="n">
         <v>536.1300048828125</v>
@@ -22812,7 +22812,7 @@
         <v>45237</v>
       </c>
       <c r="B973" t="n">
-        <v>529.762939453125</v>
+        <v>529.7628784179688</v>
       </c>
       <c r="C973" t="n">
         <v>537.8300170898438</v>
@@ -22904,7 +22904,7 @@
         <v>45243</v>
       </c>
       <c r="B977" t="n">
-        <v>534.4318237304688</v>
+        <v>534.4317626953125</v>
       </c>
       <c r="C977" t="n">
         <v>542.5700073242188</v>
@@ -22950,7 +22950,7 @@
         <v>45245</v>
       </c>
       <c r="B979" t="n">
-        <v>530.334228515625</v>
+        <v>530.3341674804688</v>
       </c>
       <c r="C979" t="n">
         <v>538.4099731445312</v>
@@ -22996,7 +22996,7 @@
         <v>45247</v>
       </c>
       <c r="B981" t="n">
-        <v>528.2459716796875</v>
+        <v>528.2460327148438</v>
       </c>
       <c r="C981" t="n">
         <v>536.2899780273438</v>
@@ -23019,7 +23019,7 @@
         <v>45250</v>
       </c>
       <c r="B982" t="n">
-        <v>527.0737915039062</v>
+        <v>527.0738525390625</v>
       </c>
       <c r="C982" t="n">
         <v>535.0999755859375</v>
@@ -23042,7 +23042,7 @@
         <v>45251</v>
       </c>
       <c r="B983" t="n">
-        <v>531.4964599609375</v>
+        <v>531.4965209960938</v>
       </c>
       <c r="C983" t="n">
         <v>539.5900268554688</v>
@@ -23088,7 +23088,7 @@
         <v>45254</v>
       </c>
       <c r="B985" t="n">
-        <v>538.893798828125</v>
+        <v>538.8938598632812</v>
       </c>
       <c r="C985" t="n">
         <v>547.0999755859375</v>
@@ -23157,7 +23157,7 @@
         <v>45259</v>
       </c>
       <c r="B988" t="n">
-        <v>526.9556274414062</v>
+        <v>526.9556884765625</v>
       </c>
       <c r="C988" t="n">
         <v>534.97998046875</v>
@@ -23203,7 +23203,7 @@
         <v>45261</v>
       </c>
       <c r="B990" t="n">
-        <v>540.79150390625</v>
+        <v>540.7915649414062</v>
       </c>
       <c r="C990" t="n">
         <v>547.1599731445312</v>
@@ -23226,7 +23226,7 @@
         <v>45264</v>
       </c>
       <c r="B991" t="n">
-        <v>541.8985595703125</v>
+        <v>541.8984985351562</v>
       </c>
       <c r="C991" t="n">
         <v>548.280029296875</v>
@@ -23272,7 +23272,7 @@
         <v>45266</v>
       </c>
       <c r="B993" t="n">
-        <v>543.1339721679688</v>
+        <v>543.134033203125</v>
       </c>
       <c r="C993" t="n">
         <v>549.530029296875</v>
@@ -23341,7 +23341,7 @@
         <v>45271</v>
       </c>
       <c r="B996" t="n">
-        <v>537.3519897460938</v>
+        <v>537.3521118164062</v>
       </c>
       <c r="C996" t="n">
         <v>543.6799926757812</v>
@@ -23387,7 +23387,7 @@
         <v>45273</v>
       </c>
       <c r="B998" t="n">
-        <v>542.6200561523438</v>
+        <v>542.6199951171875</v>
       </c>
       <c r="C998" t="n">
         <v>549.010009765625</v>
@@ -23410,7 +23410,7 @@
         <v>45274</v>
       </c>
       <c r="B999" t="n">
-        <v>528.02197265625</v>
+        <v>528.0219116210938</v>
       </c>
       <c r="C999" t="n">
         <v>534.239990234375</v>
@@ -23571,7 +23571,7 @@
         <v>45286</v>
       </c>
       <c r="B1006" t="n">
-        <v>513.9774169921875</v>
+        <v>513.9773559570312</v>
       </c>
       <c r="C1006" t="n">
         <v>520.030029296875</v>
@@ -23755,7 +23755,7 @@
         <v>45299</v>
       </c>
       <c r="B1014" t="n">
-        <v>530.275390625</v>
+        <v>530.2754516601562</v>
       </c>
       <c r="C1014" t="n">
         <v>536.52001953125</v>
@@ -23801,7 +23801,7 @@
         <v>45301</v>
       </c>
       <c r="B1016" t="n">
-        <v>531.3823852539062</v>
+        <v>531.38232421875</v>
       </c>
       <c r="C1016" t="n">
         <v>537.6400146484375</v>
@@ -23824,7 +23824,7 @@
         <v>45302</v>
       </c>
       <c r="B1017" t="n">
-        <v>533.3986206054688</v>
+        <v>533.3985595703125</v>
       </c>
       <c r="C1017" t="n">
         <v>539.6799926757812</v>
@@ -23893,7 +23893,7 @@
         <v>45308</v>
       </c>
       <c r="B1020" t="n">
-        <v>518.8301391601562</v>
+        <v>518.8302612304688</v>
       </c>
       <c r="C1020" t="n">
         <v>524.9400024414062</v>
@@ -23916,7 +23916,7 @@
         <v>45309</v>
       </c>
       <c r="B1021" t="n">
-        <v>510.3302612304688</v>
+        <v>510.3302917480469</v>
       </c>
       <c r="C1021" t="n">
         <v>516.3400268554688</v>
@@ -23962,7 +23962,7 @@
         <v>45313</v>
       </c>
       <c r="B1023" t="n">
-        <v>507.0192565917969</v>
+        <v>507.019287109375</v>
       </c>
       <c r="C1023" t="n">
         <v>512.989990234375</v>
@@ -23985,7 +23985,7 @@
         <v>45314</v>
       </c>
       <c r="B1024" t="n">
-        <v>509.5198364257812</v>
+        <v>509.5198669433594</v>
       </c>
       <c r="C1024" t="n">
         <v>515.52001953125</v>
@@ -24031,7 +24031,7 @@
         <v>45316</v>
       </c>
       <c r="B1026" t="n">
-        <v>487.6572875976562</v>
+        <v>487.6572570800781</v>
       </c>
       <c r="C1026" t="n">
         <v>493.3999938964844</v>
@@ -24100,7 +24100,7 @@
         <v>45321</v>
       </c>
       <c r="B1029" t="n">
-        <v>497.7483825683594</v>
+        <v>497.7484436035156</v>
       </c>
       <c r="C1029" t="n">
         <v>503.6099853515625</v>
@@ -24146,7 +24146,7 @@
         <v>45323</v>
       </c>
       <c r="B1031" t="n">
-        <v>501.2373657226562</v>
+        <v>501.2373352050781</v>
       </c>
       <c r="C1031" t="n">
         <v>507.1400146484375</v>
@@ -24169,7 +24169,7 @@
         <v>45324</v>
       </c>
       <c r="B1032" t="n">
-        <v>504.2914123535156</v>
+        <v>504.2913818359375</v>
       </c>
       <c r="C1032" t="n">
         <v>510.2300109863281</v>
@@ -24192,7 +24192,7 @@
         <v>45327</v>
       </c>
       <c r="B1033" t="n">
-        <v>497.1060180664062</v>
+        <v>497.1059875488281</v>
       </c>
       <c r="C1033" t="n">
         <v>502.9599914550781</v>
@@ -24215,7 +24215,7 @@
         <v>45328</v>
       </c>
       <c r="B1034" t="n">
-        <v>504.7262573242188</v>
+        <v>504.7262878417969</v>
       </c>
       <c r="C1034" t="n">
         <v>510.6700134277344</v>
@@ -24238,7 +24238,7 @@
         <v>45329</v>
       </c>
       <c r="B1035" t="n">
-        <v>513.3448486328125</v>
+        <v>513.3447875976562</v>
       </c>
       <c r="C1035" t="n">
         <v>519.3900146484375</v>
@@ -24353,7 +24353,7 @@
         <v>45336</v>
       </c>
       <c r="B1040" t="n">
-        <v>510.92333984375</v>
+        <v>510.9232788085938</v>
       </c>
       <c r="C1040" t="n">
         <v>516.9400024414062</v>
@@ -24376,7 +24376,7 @@
         <v>45337</v>
       </c>
       <c r="B1041" t="n">
-        <v>514.8173828125</v>
+        <v>514.8174438476562</v>
       </c>
       <c r="C1041" t="n">
         <v>520.8800048828125</v>
@@ -24422,7 +24422,7 @@
         <v>45342</v>
       </c>
       <c r="B1043" t="n">
-        <v>514.995361328125</v>
+        <v>514.9953002929688</v>
       </c>
       <c r="C1043" t="n">
         <v>521.0599975585938</v>
@@ -24445,7 +24445,7 @@
         <v>45343</v>
       </c>
       <c r="B1044" t="n">
-        <v>515.8946533203125</v>
+        <v>515.8947143554688</v>
       </c>
       <c r="C1044" t="n">
         <v>521.969970703125</v>
@@ -24491,7 +24491,7 @@
         <v>45345</v>
       </c>
       <c r="B1046" t="n">
-        <v>521.1033325195312</v>
+        <v>521.1034545898438</v>
       </c>
       <c r="C1046" t="n">
         <v>527.239990234375</v>
@@ -24514,7 +24514,7 @@
         <v>45348</v>
       </c>
       <c r="B1047" t="n">
-        <v>519.2056884765625</v>
+        <v>519.2057495117188</v>
       </c>
       <c r="C1047" t="n">
         <v>525.3200073242188</v>
@@ -24537,7 +24537,7 @@
         <v>45349</v>
       </c>
       <c r="B1048" t="n">
-        <v>507.4442749023438</v>
+        <v>507.4442443847656</v>
       </c>
       <c r="C1048" t="n">
         <v>513.4199829101562</v>
@@ -24560,7 +24560,7 @@
         <v>45350</v>
       </c>
       <c r="B1049" t="n">
-        <v>492.4804992675781</v>
+        <v>492.48046875</v>
       </c>
       <c r="C1049" t="n">
         <v>498.2799987792969</v>
@@ -24583,7 +24583,7 @@
         <v>45351</v>
       </c>
       <c r="B1050" t="n">
-        <v>487.8549499511719</v>
+        <v>487.8549194335938</v>
       </c>
       <c r="C1050" t="n">
         <v>493.6000061035156</v>
@@ -24606,7 +24606,7 @@
         <v>45352</v>
       </c>
       <c r="B1051" t="n">
-        <v>483.8323364257812</v>
+        <v>483.8323059082031</v>
       </c>
       <c r="C1051" t="n">
         <v>489.5299987792969</v>
@@ -24652,7 +24652,7 @@
         <v>45356</v>
       </c>
       <c r="B1053" t="n">
-        <v>467.6429443359375</v>
+        <v>467.6429748535156</v>
       </c>
       <c r="C1053" t="n">
         <v>473.1499938964844</v>
@@ -24675,7 +24675,7 @@
         <v>45357</v>
       </c>
       <c r="B1054" t="n">
-        <v>467.099365234375</v>
+        <v>467.0993957519531</v>
       </c>
       <c r="C1054" t="n">
         <v>472.6000061035156</v>
@@ -24790,7 +24790,7 @@
         <v>45364</v>
       </c>
       <c r="B1059" t="n">
-        <v>484.2214965820312</v>
+        <v>484.2214660644531</v>
       </c>
       <c r="C1059" t="n">
         <v>488</v>
@@ -24928,7 +24928,7 @@
         <v>45372</v>
       </c>
       <c r="B1065" t="n">
-        <v>487.8829345703125</v>
+        <v>487.8829040527344</v>
       </c>
       <c r="C1065" t="n">
         <v>491.6900024414062</v>
@@ -24951,7 +24951,7 @@
         <v>45373</v>
       </c>
       <c r="B1066" t="n">
-        <v>486.2754516601562</v>
+        <v>486.2754821777344</v>
       </c>
       <c r="C1066" t="n">
         <v>490.0700073242188</v>
@@ -24974,7 +24974,7 @@
         <v>45376</v>
       </c>
       <c r="B1067" t="n">
-        <v>482.1178894042969</v>
+        <v>482.117919921875</v>
       </c>
       <c r="C1067" t="n">
         <v>485.8800048828125</v>
@@ -24997,7 +24997,7 @@
         <v>45377</v>
       </c>
       <c r="B1068" t="n">
-        <v>488.4981079101562</v>
+        <v>488.4981384277344</v>
       </c>
       <c r="C1068" t="n">
         <v>492.3099975585938</v>
@@ -25296,7 +25296,7 @@
         <v>45397</v>
       </c>
       <c r="B1081" t="n">
-        <v>442.1795654296875</v>
+        <v>442.1795349121094</v>
       </c>
       <c r="C1081" t="n">
         <v>445.6300048828125</v>
@@ -25342,7 +25342,7 @@
         <v>45399</v>
       </c>
       <c r="B1083" t="n">
-        <v>475.28125</v>
+        <v>475.2812194824219</v>
       </c>
       <c r="C1083" t="n">
         <v>478.989990234375</v>
@@ -25434,7 +25434,7 @@
         <v>45405</v>
       </c>
       <c r="B1087" t="n">
-        <v>482.4155883789062</v>
+        <v>482.4155578613281</v>
       </c>
       <c r="C1087" t="n">
         <v>486.1799926757812</v>
@@ -25549,7 +25549,7 @@
         <v>45412</v>
       </c>
       <c r="B1092" t="n">
-        <v>479.9548034667969</v>
+        <v>479.9547729492188</v>
       </c>
       <c r="C1092" t="n">
         <v>483.7000122070312</v>
@@ -25572,7 +25572,7 @@
         <v>45413</v>
       </c>
       <c r="B1093" t="n">
-        <v>480.361572265625</v>
+        <v>480.3616027832031</v>
       </c>
       <c r="C1093" t="n">
         <v>484.1099853515625</v>
@@ -25618,7 +25618,7 @@
         <v>45415</v>
       </c>
       <c r="B1095" t="n">
-        <v>488.6370544433594</v>
+        <v>488.6370239257812</v>
       </c>
       <c r="C1095" t="n">
         <v>492.4500122070312</v>
@@ -25940,7 +25940,7 @@
         <v>45435</v>
       </c>
       <c r="B1109" t="n">
-        <v>512.8283081054688</v>
+        <v>512.8282470703125</v>
       </c>
       <c r="C1109" t="n">
         <v>516.8300170898438</v>
@@ -25986,7 +25986,7 @@
         <v>45440</v>
       </c>
       <c r="B1111" t="n">
-        <v>499.7800598144531</v>
+        <v>499.7800903320312</v>
       </c>
       <c r="C1111" t="n">
         <v>503.6799926757812</v>
@@ -26055,7 +26055,7 @@
         <v>45443</v>
       </c>
       <c r="B1114" t="n">
-        <v>491.5343933105469</v>
+        <v>491.534423828125</v>
       </c>
       <c r="C1114" t="n">
         <v>495.3699951171875</v>
@@ -26078,7 +26078,7 @@
         <v>45446</v>
       </c>
       <c r="B1115" t="n">
-        <v>493.5884094238281</v>
+        <v>493.58837890625</v>
       </c>
       <c r="C1115" t="n">
         <v>497.4400024414062</v>
@@ -26239,7 +26239,7 @@
         <v>45455</v>
       </c>
       <c r="B1122" t="n">
-        <v>489.2522583007812</v>
+        <v>489.2522277832031</v>
       </c>
       <c r="C1122" t="n">
         <v>493.0700073242188</v>
